--- a/Data/Lab-linked/SoilCompConc_W1toW15_Smet.xlsx
+++ b/Data/Lab-linked/SoilCompConc_W1toW15_Smet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="210" windowWidth="28515" windowHeight="12525"/>
+    <workbookView xWindow="3885" yWindow="270" windowWidth="28515" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -13,10 +13,8 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -358,7 +356,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +370,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -397,10 +400,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -424,9 +428,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -439,435 +448,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="MassAll"/>
-      <sheetName val="ConcSpatial"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="32">
-          <cell r="P32">
-            <v>1.8293100230621178E-2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="P33">
-            <v>2.0499617162990518E-2</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="P34">
-            <v>2.851923954541466E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="10">
-          <cell r="N10">
-            <v>1.398138503833442</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="N30">
-            <v>1.1248319305870687</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="N50">
-            <v>2.8810780524134021</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Water"/>
-      <sheetName val="Soil_Composite"/>
-      <sheetName val="Soil_Detailed"/>
-      <sheetName val="Filter"/>
-      <sheetName val="FieldConcentrations"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="7">
-          <cell r="N7">
-            <v>1.5895551317455463</v>
-          </cell>
-          <cell r="O7">
-            <v>0.15127131796522916</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="N8">
-            <v>4.8244413875424978</v>
-          </cell>
-          <cell r="O8">
-            <v>4.9982885534967894E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="N9">
-            <v>6.1574246981357135</v>
-          </cell>
-          <cell r="O9">
-            <v>0.13096801453805926</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="N10">
-            <v>3.6200101140894532</v>
-          </cell>
-          <cell r="O10">
-            <v>0.51500638761602013</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="N11">
-            <v>1.070489495182759</v>
-          </cell>
-          <cell r="O11">
-            <v>0.25072252017851038</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="N12">
-            <v>2.3105058892969068</v>
-          </cell>
-          <cell r="O12">
-            <v>0.91209433160012066</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="N13">
-            <v>0.50910239616026143</v>
-          </cell>
-          <cell r="O13">
-            <v>1.9651623885490514E-2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="N14">
-            <v>0.71739522476215389</v>
-          </cell>
-          <cell r="O14">
-            <v>1.6946997994090957E-2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="N15">
-            <v>1.4255959136007013</v>
-          </cell>
-          <cell r="O15">
-            <v>1.8820522870675101E-2</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="N16">
-            <v>1.6667161565630682</v>
-          </cell>
-          <cell r="O16">
-            <v>2.5691962343721095E-2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="N17">
-            <v>2.0971600808769915</v>
-          </cell>
-          <cell r="O17">
-            <v>6.8256060653447026E-2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="N18">
-            <v>1.7092545886049291</v>
-          </cell>
-          <cell r="O18">
-            <v>6.8256060653447026E-2</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="N19">
-            <v>0.25764692691783236</v>
-          </cell>
-          <cell r="O19">
-            <v>6.8256060653447026E-2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="N20">
-            <v>1.3336411412228617</v>
-          </cell>
-          <cell r="O20">
-            <v>6.8256060653447026E-2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="N21">
-            <v>0.95642005888328807</v>
-          </cell>
-          <cell r="O21">
-            <v>6.8256060653447026E-2</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="N22">
-            <v>6.5345160966768647</v>
-          </cell>
-          <cell r="O22">
-            <v>9.4900894256956386E-2</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="N23">
-            <v>3.1599666834753055</v>
-          </cell>
-          <cell r="O23">
-            <v>0.26640533852975629</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="N24">
-            <v>4.2156270039737453</v>
-          </cell>
-          <cell r="O24">
-            <v>0.16016327402904107</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="N25">
-            <v>5.6590057065271111</v>
-          </cell>
-          <cell r="O25">
-            <v>8.7779129279304063E-2</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="N26">
-            <v>2.76408391035792</v>
-          </cell>
-          <cell r="O26">
-            <v>2.3281068874223116E-2</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="N27">
-            <v>2.1038123097257184</v>
-          </cell>
-          <cell r="O27">
-            <v>5.0946906916070137E-2</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="N28">
-            <v>1.5254541300039282</v>
-          </cell>
-          <cell r="O28">
-            <v>3.4715700936551755E-2</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="N29">
-            <v>1.0676245984997217</v>
-          </cell>
-          <cell r="O29">
-            <v>3.7581092050989306E-2</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="N30">
-            <v>1.0374518177054053</v>
-          </cell>
-          <cell r="O30">
-            <v>1.5792484477241898E-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="N31">
-            <v>1.851077179543845</v>
-          </cell>
-          <cell r="O31">
-            <v>6.8256060653447026E-2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="N32">
-            <v>1.6009073378368643</v>
-          </cell>
-          <cell r="O32">
-            <v>6.8256060653447026E-2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="N33">
-            <v>2.796793089552009</v>
-          </cell>
-          <cell r="O33">
-            <v>6.8256060653447026E-2</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="N34">
-            <v>1.1937055417154974</v>
-          </cell>
-          <cell r="O34">
-            <v>6.8256060653447026E-2</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="N35">
-            <v>1.0220274541954517</v>
-          </cell>
-          <cell r="O35">
-            <v>6.8256060653447026E-2</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="N36">
-            <v>1.1610021513926232</v>
-          </cell>
-          <cell r="O36">
-            <v>6.8256060653447026E-2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="N37">
-            <v>1.4632720947001103</v>
-          </cell>
-          <cell r="O37">
-            <v>3.3148027184235367E-2</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="N38">
-            <v>3.0154551034462935</v>
-          </cell>
-          <cell r="O38">
-            <v>5.6964185368284598E-2</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="N39">
-            <v>4.3661956211860895</v>
-          </cell>
-          <cell r="O39">
-            <v>2.5287214893455023</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="N40">
-            <v>4.0263597252140206</v>
-          </cell>
-          <cell r="O40">
-            <v>0.18382775838014603</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="N41">
-            <v>1.6651244634779927</v>
-          </cell>
-          <cell r="O41">
-            <v>0.31521511629310506</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="N42">
-            <v>1.8243919123532297</v>
-          </cell>
-          <cell r="O42">
-            <v>7.954793593860944E-2</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="N43">
-            <v>0.73559322383949233</v>
-          </cell>
-          <cell r="O43">
-            <v>2.6513718196524077E-2</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="N44">
-            <v>0.58580618000860563</v>
-          </cell>
-          <cell r="O44">
-            <v>1.6495405963352843E-2</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="N45">
-            <v>1.9572147125589532</v>
-          </cell>
-          <cell r="O45">
-            <v>5.4130209764812004E-2</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="N46">
-            <v>2.0800550823758956</v>
-          </cell>
-          <cell r="O46">
-            <v>7.1258339169038523E-2</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="N47">
-            <v>5.6986524061156141</v>
-          </cell>
-          <cell r="O47">
-            <v>6.8256060653447026E-2</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="N48">
-            <v>2.7372475095066355</v>
-          </cell>
-          <cell r="O48">
-            <v>6.8256060653447026E-2</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="N49">
-            <v>2.3693944756009291</v>
-          </cell>
-          <cell r="O49">
-            <v>6.8256060653447026E-2</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="N50">
-            <v>1.5868495293533809</v>
-          </cell>
-          <cell r="O50">
-            <v>6.8256060653447026E-2</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="N51">
-            <v>1.311905359014532</v>
-          </cell>
-          <cell r="O51">
-            <v>6.8256060653447026E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1529,7 +1109,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,7 +1165,6 @@
         <v>42454.00277777778</v>
       </c>
       <c r="G2" s="9">
-        <f>[1]MassAll!$P$32</f>
         <v>1.8293100230621178E-2</v>
       </c>
       <c r="H2" s="3"/>
@@ -1610,7 +1189,6 @@
         <v>42454.00277777778</v>
       </c>
       <c r="G3" s="9">
-        <f>[1]MassAll!$P$33</f>
         <v>2.0499617162990518E-2</v>
       </c>
       <c r="H3"/>
@@ -1635,7 +1213,6 @@
         <v>42454.00277777778</v>
       </c>
       <c r="G4" s="9">
-        <f>[1]MassAll!$P$34</f>
         <v>2.851923954541466E-2</v>
       </c>
       <c r="H4"/>
@@ -1659,11 +1236,12 @@
       <c r="F5" s="4">
         <v>42459.512499999997</v>
       </c>
-      <c r="G5" s="9">
-        <f>[1]ConcSpatial!$N$10</f>
-        <v>1.398138503833442</v>
-      </c>
-      <c r="H5" s="3"/>
+      <c r="G5" s="12">
+        <v>0.88933584411890654</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1.4648937602123611</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1684,11 +1262,12 @@
       <c r="F6" s="4">
         <v>42459.512499999997</v>
       </c>
-      <c r="G6" s="9">
-        <f>[1]ConcSpatial!$N$30</f>
-        <v>1.1248319305870687</v>
-      </c>
-      <c r="H6"/>
+      <c r="G6" s="12">
+        <v>0.80076800129076531</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1.8283699652833745</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1709,11 +1288,12 @@
       <c r="F7" s="4">
         <v>42459.512499999997</v>
       </c>
-      <c r="G7" s="9">
-        <f>[1]ConcSpatial!$N$50</f>
-        <v>2.8810780524134021</v>
-      </c>
-      <c r="H7"/>
+      <c r="G7" s="12">
+        <v>3.2039808097778946</v>
+      </c>
+      <c r="H7" s="11">
+        <v>2.7672277863518882</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1735,12 +1315,10 @@
         <v>42465.630555555559</v>
       </c>
       <c r="G8" s="9">
-        <f>[2]Soil_Composite!N7</f>
-        <v>1.5895551317455463</v>
+        <v>1.5895551317455501</v>
       </c>
       <c r="H8" s="10">
-        <f>[2]Soil_Composite!O7</f>
-        <v>0.15127131796522916</v>
+        <v>0.151271317965229</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1763,11 +1341,9 @@
         <v>42474.577777777777</v>
       </c>
       <c r="G9" s="9">
-        <f>[2]Soil_Composite!N8</f>
         <v>4.8244413875424978</v>
       </c>
       <c r="H9" s="10">
-        <f>[2]Soil_Composite!O8</f>
         <v>4.9982885534967894E-2</v>
       </c>
     </row>
@@ -1791,12 +1367,10 @@
         <v>42478.854166666664</v>
       </c>
       <c r="G10" s="9">
-        <f>[2]Soil_Composite!N9</f>
-        <v>6.1574246981357135</v>
+        <v>4.4742033464515245</v>
       </c>
       <c r="H10" s="10">
-        <f>[2]Soil_Composite!O9</f>
-        <v>0.13096801453805926</v>
+        <v>1.8457371047311009</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1819,11 +1393,9 @@
         <v>42486.493055555555</v>
       </c>
       <c r="G11" s="9">
-        <f>[2]Soil_Composite!N10</f>
         <v>3.6200101140894532</v>
       </c>
       <c r="H11" s="10">
-        <f>[2]Soil_Composite!O10</f>
         <v>0.51500638761602013</v>
       </c>
     </row>
@@ -1847,12 +1419,10 @@
         <v>42493.548611111109</v>
       </c>
       <c r="G12" s="9">
-        <f>[2]Soil_Composite!N11</f>
-        <v>1.070489495182759</v>
+        <v>0.9541818700311292</v>
       </c>
       <c r="H12" s="10">
-        <f>[2]Soil_Composite!O11</f>
-        <v>0.25072252017851038</v>
+        <v>0.23831766319960851</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1875,12 +1445,10 @@
         <v>42500.004166666666</v>
       </c>
       <c r="G13" s="9">
-        <f>[2]Soil_Composite!N12</f>
-        <v>2.3105058892969068</v>
+        <v>2.4455421988735617</v>
       </c>
       <c r="H13" s="10">
-        <f>[2]Soil_Composite!O12</f>
-        <v>0.91209433160012066</v>
+        <v>0.6709542361716232</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1903,12 +1471,10 @@
         <v>42507.386111111111</v>
       </c>
       <c r="G14" s="9">
-        <f>[2]Soil_Composite!N13</f>
-        <v>0.50910239616026143</v>
+        <v>1.5003898386420318</v>
       </c>
       <c r="H14" s="10">
-        <f>[2]Soil_Composite!O13</f>
-        <v>1.9651623885490514E-2</v>
+        <v>0.26880404449783096</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1931,12 +1497,10 @@
         <v>42514.5</v>
       </c>
       <c r="G15" s="9">
-        <f>[2]Soil_Composite!N14</f>
-        <v>0.71739522476215389</v>
+        <v>1.0147379179594411</v>
       </c>
       <c r="H15" s="10">
-        <f>[2]Soil_Composite!O14</f>
-        <v>1.6946997994090957E-2</v>
+        <v>2.4378949821215742E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1959,12 +1523,10 @@
         <v>42521.5</v>
       </c>
       <c r="G16" s="9">
-        <f>[2]Soil_Composite!N15</f>
-        <v>1.4255959136007013</v>
+        <v>0.85862977090762593</v>
       </c>
       <c r="H16" s="10">
-        <f>[2]Soil_Composite!O15</f>
-        <v>1.8820522870675101E-2</v>
+        <v>3.0424364481557265E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1987,12 +1549,10 @@
         <v>42528.5</v>
       </c>
       <c r="G17" s="9">
-        <f>[2]Soil_Composite!N16</f>
-        <v>1.6667161565630682</v>
+        <v>2.0423207888456698</v>
       </c>
       <c r="H17" s="10">
-        <f>[2]Soil_Composite!O16</f>
-        <v>2.5691962343721095E-2</v>
+        <v>0.66768371562411877</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2015,12 +1575,10 @@
         <v>42535.54583333333</v>
       </c>
       <c r="G18" s="9">
-        <f>[2]Soil_Composite!N17</f>
         <v>2.0971600808769915</v>
       </c>
       <c r="H18" s="10">
-        <f>[2]Soil_Composite!O17</f>
-        <v>6.8256060653447026E-2</v>
+        <v>9.4900894256956386E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2043,12 +1601,10 @@
         <v>42542.5</v>
       </c>
       <c r="G19" s="9">
-        <f>[2]Soil_Composite!N18</f>
         <v>1.7092545886049291</v>
       </c>
       <c r="H19" s="10">
-        <f>[2]Soil_Composite!O18</f>
-        <v>6.8256060653447026E-2</v>
+        <v>9.4900894256956386E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2071,12 +1627,10 @@
         <v>42549.37222222222</v>
       </c>
       <c r="G20" s="9">
-        <f>[2]Soil_Composite!N19</f>
         <v>0.25764692691783236</v>
       </c>
       <c r="H20" s="10">
-        <f>[2]Soil_Composite!O19</f>
-        <v>6.8256060653447026E-2</v>
+        <v>9.4900894256956386E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2099,12 +1653,10 @@
         <v>42555.612500000003</v>
       </c>
       <c r="G21" s="9">
-        <f>[2]Soil_Composite!N20</f>
         <v>1.3336411412228617</v>
       </c>
       <c r="H21" s="10">
-        <f>[2]Soil_Composite!O20</f>
-        <v>6.8256060653447026E-2</v>
+        <v>9.4900894256956386E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2127,12 +1679,10 @@
         <v>42563.041666666664</v>
       </c>
       <c r="G22" s="9">
-        <f>[2]Soil_Composite!N21</f>
         <v>0.95642005888328807</v>
       </c>
       <c r="H22" s="10">
-        <f>[2]Soil_Composite!O21</f>
-        <v>6.8256060653447026E-2</v>
+        <v>9.4900894256956386E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2155,11 +1705,9 @@
         <v>42465.630555555559</v>
       </c>
       <c r="G23" s="9">
-        <f>[2]Soil_Composite!N22</f>
         <v>6.5345160966768647</v>
       </c>
       <c r="H23" s="10">
-        <f>[2]Soil_Composite!O22</f>
         <v>9.4900894256956386E-2</v>
       </c>
     </row>
@@ -2183,12 +1731,10 @@
         <v>42474.577777777777</v>
       </c>
       <c r="G24" s="9">
-        <f>[2]Soil_Composite!N23</f>
-        <v>3.1599666834753055</v>
+        <v>4.2195143966507187</v>
       </c>
       <c r="H24" s="10">
-        <f>[2]Soil_Composite!O23</f>
-        <v>0.26640533852975629</v>
+        <v>1.1729519088683031</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2211,11 +1757,9 @@
         <v>42478.854166666664</v>
       </c>
       <c r="G25" s="9">
-        <f>[2]Soil_Composite!N24</f>
         <v>4.2156270039737453</v>
       </c>
       <c r="H25" s="10">
-        <f>[2]Soil_Composite!O24</f>
         <v>0.16016327402904107</v>
       </c>
     </row>
@@ -2239,12 +1783,10 @@
         <v>42486.493055555555</v>
       </c>
       <c r="G26" s="9">
-        <f>[2]Soil_Composite!N25</f>
-        <v>5.6590057065271111</v>
+        <v>2.2252943179529803</v>
       </c>
       <c r="H26" s="10">
-        <f>[2]Soil_Composite!O25</f>
-        <v>8.7779129279304063E-2</v>
+        <v>2.5175462249543472E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2267,11 +1809,9 @@
         <v>42493.548611111109</v>
       </c>
       <c r="G27" s="9">
-        <f>[2]Soil_Composite!N26</f>
         <v>2.76408391035792</v>
       </c>
       <c r="H27" s="10">
-        <f>[2]Soil_Composite!O26</f>
         <v>2.3281068874223116E-2</v>
       </c>
     </row>
@@ -2295,11 +1835,9 @@
         <v>42500.004166666666</v>
       </c>
       <c r="G28" s="9">
-        <f>[2]Soil_Composite!N27</f>
         <v>2.1038123097257184</v>
       </c>
       <c r="H28" s="10">
-        <f>[2]Soil_Composite!O27</f>
         <v>5.0946906916070137E-2</v>
       </c>
     </row>
@@ -2323,11 +1861,9 @@
         <v>42507.386111111111</v>
       </c>
       <c r="G29" s="9">
-        <f>[2]Soil_Composite!N28</f>
         <v>1.5254541300039282</v>
       </c>
       <c r="H29" s="10">
-        <f>[2]Soil_Composite!O28</f>
         <v>3.4715700936551755E-2</v>
       </c>
     </row>
@@ -2351,11 +1887,9 @@
         <v>42514.5</v>
       </c>
       <c r="G30" s="9">
-        <f>[2]Soil_Composite!N29</f>
         <v>1.0676245984997217</v>
       </c>
       <c r="H30" s="10">
-        <f>[2]Soil_Composite!O29</f>
         <v>3.7581092050989306E-2</v>
       </c>
     </row>
@@ -2379,11 +1913,9 @@
         <v>42521.5</v>
       </c>
       <c r="G31" s="9">
-        <f>[2]Soil_Composite!N30</f>
         <v>1.0374518177054053</v>
       </c>
       <c r="H31" s="10">
-        <f>[2]Soil_Composite!O30</f>
         <v>1.5792484477241898E-2</v>
       </c>
     </row>
@@ -2407,12 +1939,10 @@
         <v>42528.5</v>
       </c>
       <c r="G32" s="9">
-        <f>[2]Soil_Composite!N31</f>
         <v>1.851077179543845</v>
       </c>
       <c r="H32" s="10">
-        <f>[2]Soil_Composite!O31</f>
-        <v>6.8256060653447026E-2</v>
+        <v>9.4900894256956386E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2435,12 +1965,10 @@
         <v>42535.54583333333</v>
       </c>
       <c r="G33" s="9">
-        <f>[2]Soil_Composite!N32</f>
         <v>1.6009073378368643</v>
       </c>
       <c r="H33" s="10">
-        <f>[2]Soil_Composite!O32</f>
-        <v>6.8256060653447026E-2</v>
+        <v>9.4900894256956386E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2463,12 +1991,10 @@
         <v>42542.5</v>
       </c>
       <c r="G34" s="9">
-        <f>[2]Soil_Composite!N33</f>
         <v>2.796793089552009</v>
       </c>
       <c r="H34" s="10">
-        <f>[2]Soil_Composite!O33</f>
-        <v>6.8256060653447026E-2</v>
+        <v>9.4900894256956386E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2491,12 +2017,10 @@
         <v>42549.37222222222</v>
       </c>
       <c r="G35" s="9">
-        <f>[2]Soil_Composite!N34</f>
         <v>1.1937055417154974</v>
       </c>
       <c r="H35" s="10">
-        <f>[2]Soil_Composite!O34</f>
-        <v>6.8256060653447026E-2</v>
+        <v>9.4900894256956386E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2519,12 +2043,10 @@
         <v>42555.612500000003</v>
       </c>
       <c r="G36" s="9">
-        <f>[2]Soil_Composite!N35</f>
         <v>1.0220274541954517</v>
       </c>
       <c r="H36" s="10">
-        <f>[2]Soil_Composite!O35</f>
-        <v>6.8256060653447026E-2</v>
+        <v>9.4900894256956386E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2547,12 +2069,10 @@
         <v>42563.041666666664</v>
       </c>
       <c r="G37" s="9">
-        <f>[2]Soil_Composite!N36</f>
         <v>1.1610021513926232</v>
       </c>
       <c r="H37" s="10">
-        <f>[2]Soil_Composite!O36</f>
-        <v>6.8256060653447026E-2</v>
+        <v>9.4900894256956386E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2575,11 +2095,9 @@
         <v>42465.630555555559</v>
       </c>
       <c r="G38" s="9">
-        <f>[2]Soil_Composite!N37</f>
         <v>1.4632720947001103</v>
       </c>
       <c r="H38" s="10">
-        <f>[2]Soil_Composite!O37</f>
         <v>3.3148027184235367E-2</v>
       </c>
     </row>
@@ -2603,11 +2121,9 @@
         <v>42474.577777777777</v>
       </c>
       <c r="G39" s="9">
-        <f>[2]Soil_Composite!N38</f>
         <v>3.0154551034462935</v>
       </c>
       <c r="H39" s="10">
-        <f>[2]Soil_Composite!O38</f>
         <v>5.6964185368284598E-2</v>
       </c>
     </row>
@@ -2631,12 +2147,10 @@
         <v>42478.854166666664</v>
       </c>
       <c r="G40" s="9">
-        <f>[2]Soil_Composite!N39</f>
-        <v>4.3661956211860895</v>
+        <v>5.323943431661009</v>
       </c>
       <c r="H40" s="10">
-        <f>[2]Soil_Composite!O39</f>
-        <v>2.5287214893455023</v>
+        <v>1.6682090952371866</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2659,11 +2173,9 @@
         <v>42486.493055555555</v>
       </c>
       <c r="G41" s="9">
-        <f>[2]Soil_Composite!N40</f>
         <v>4.0263597252140206</v>
       </c>
       <c r="H41" s="10">
-        <f>[2]Soil_Composite!O40</f>
         <v>0.18382775838014603</v>
       </c>
     </row>
@@ -2687,11 +2199,9 @@
         <v>42493.548611111109</v>
       </c>
       <c r="G42" s="9">
-        <f>[2]Soil_Composite!N41</f>
         <v>1.6651244634779927</v>
       </c>
       <c r="H42" s="10">
-        <f>[2]Soil_Composite!O41</f>
         <v>0.31521511629310506</v>
       </c>
     </row>
@@ -2715,11 +2225,9 @@
         <v>42500.004166666666</v>
       </c>
       <c r="G43" s="9">
-        <f>[2]Soil_Composite!N42</f>
         <v>1.8243919123532297</v>
       </c>
       <c r="H43" s="10">
-        <f>[2]Soil_Composite!O42</f>
         <v>7.954793593860944E-2</v>
       </c>
     </row>
@@ -2743,12 +2251,10 @@
         <v>42507.386111111111</v>
       </c>
       <c r="G44" s="9">
-        <f>[2]Soil_Composite!N43</f>
-        <v>0.73559322383949233</v>
+        <v>3.6757789760730963</v>
       </c>
       <c r="H44" s="10">
-        <f>[2]Soil_Composite!O43</f>
-        <v>2.6513718196524077E-2</v>
+        <v>0.7978019513161887</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2771,12 +2277,10 @@
         <v>42514.5</v>
       </c>
       <c r="G45" s="9">
-        <f>[2]Soil_Composite!N44</f>
-        <v>0.58580618000860563</v>
+        <v>2.3401342425648899</v>
       </c>
       <c r="H45" s="10">
-        <f>[2]Soil_Composite!O44</f>
-        <v>1.6495405963352843E-2</v>
+        <v>2.351439086363832E-2</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2799,12 +2303,10 @@
         <v>42521.5</v>
       </c>
       <c r="G46" s="9">
-        <f>[2]Soil_Composite!N45</f>
-        <v>1.9572147125589532</v>
+        <v>2.1759287488992474</v>
       </c>
       <c r="H46" s="10">
-        <f>[2]Soil_Composite!O45</f>
-        <v>5.4130209764812004E-2</v>
+        <v>0.65384240384155223</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2827,12 +2329,10 @@
         <v>42528.5</v>
       </c>
       <c r="G47" s="9">
-        <f>[2]Soil_Composite!N46</f>
-        <v>2.0800550823758956</v>
+        <v>3.0606484321396739</v>
       </c>
       <c r="H47" s="10">
-        <f>[2]Soil_Composite!O46</f>
-        <v>7.1258339169038523E-2</v>
+        <v>1.3449321340358764</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2855,12 +2355,10 @@
         <v>42535.54583333333</v>
       </c>
       <c r="G48" s="9">
-        <f>[2]Soil_Composite!N47</f>
-        <v>5.6986524061156141</v>
+        <v>2.4961286762469523</v>
       </c>
       <c r="H48" s="10">
-        <f>[2]Soil_Composite!O47</f>
-        <v>6.8256060653447026E-2</v>
+        <v>1.4839379268362554E-2</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2883,12 +2381,10 @@
         <v>42542.5</v>
       </c>
       <c r="G49" s="9">
-        <f>[2]Soil_Composite!N48</f>
         <v>2.7372475095066355</v>
       </c>
       <c r="H49" s="10">
-        <f>[2]Soil_Composite!O48</f>
-        <v>6.8256060653447026E-2</v>
+        <v>9.4900894256956386E-2</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2911,12 +2407,10 @@
         <v>42549.37222222222</v>
       </c>
       <c r="G50" s="9">
-        <f>[2]Soil_Composite!N49</f>
         <v>2.3693944756009291</v>
       </c>
       <c r="H50" s="10">
-        <f>[2]Soil_Composite!O49</f>
-        <v>6.8256060653447026E-2</v>
+        <v>9.4900894256956386E-2</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2939,12 +2433,10 @@
         <v>42555.612500000003</v>
       </c>
       <c r="G51" s="9">
-        <f>[2]Soil_Composite!N50</f>
         <v>1.5868495293533809</v>
       </c>
       <c r="H51" s="10">
-        <f>[2]Soil_Composite!O50</f>
-        <v>6.8256060653447026E-2</v>
+        <v>9.4900894256956386E-2</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2967,12 +2459,10 @@
         <v>42563.041666666664</v>
       </c>
       <c r="G52" s="9">
-        <f>[2]Soil_Composite!N51</f>
         <v>1.311905359014532</v>
       </c>
       <c r="H52" s="10">
-        <f>[2]Soil_Composite!O51</f>
-        <v>6.8256060653447026E-2</v>
+        <v>9.4900894256956386E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3005,14 +2495,14 @@
         <v>58</v>
       </c>
       <c r="B2" s="5" t="str">
-        <f>[3]Analyses!A6</f>
+        <f>[1]Analyses!A6</f>
         <v>AO-W0-1</v>
       </c>
       <c r="C2" s="4">
         <v>42459</v>
       </c>
       <c r="D2" s="4">
-        <f>[3]Analyses!C6</f>
+        <f>[1]Analyses!C6</f>
         <v>42459</v>
       </c>
     </row>
@@ -3021,12 +2511,12 @@
         <v>59</v>
       </c>
       <c r="B3" s="5" t="str">
-        <f>[3]Analyses!A7</f>
+        <f>[1]Analyses!A7</f>
         <v>AO-W1-1</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4">
-        <f>[3]Analyses!C7</f>
+        <f>[1]Analyses!C7</f>
         <v>42465</v>
       </c>
     </row>
@@ -3035,14 +2525,14 @@
         <v>60</v>
       </c>
       <c r="B4" s="5" t="str">
-        <f>[3]Analyses!A8</f>
+        <f>[1]Analyses!A8</f>
         <v>AO-W1-2</v>
       </c>
       <c r="C4" s="4">
         <v>42465</v>
       </c>
       <c r="D4" s="4">
-        <f>[3]Analyses!C8</f>
+        <f>[1]Analyses!C8</f>
         <v>42465</v>
       </c>
     </row>
@@ -3051,12 +2541,12 @@
         <v>61</v>
       </c>
       <c r="B5" s="5" t="str">
-        <f>[3]Analyses!A9</f>
+        <f>[1]Analyses!A9</f>
         <v>AO-W2-1</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4">
-        <f>[3]Analyses!C9</f>
+        <f>[1]Analyses!C9</f>
         <v>42472</v>
       </c>
     </row>
@@ -3065,14 +2555,14 @@
         <v>62</v>
       </c>
       <c r="B6" s="5" t="str">
-        <f>[3]Analyses!A10</f>
+        <f>[1]Analyses!A10</f>
         <v>AO-W2-2</v>
       </c>
       <c r="C6" s="4">
         <v>42472</v>
       </c>
       <c r="D6" s="4">
-        <f>[3]Analyses!C10</f>
+        <f>[1]Analyses!C10</f>
         <v>42472</v>
       </c>
     </row>
@@ -3081,12 +2571,12 @@
         <v>63</v>
       </c>
       <c r="B7" s="5" t="str">
-        <f>[3]Analyses!A11</f>
+        <f>[1]Analyses!A11</f>
         <v>AO-W3-1</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4">
-        <f>[3]Analyses!C11</f>
+        <f>[1]Analyses!C11</f>
         <v>42478</v>
       </c>
     </row>
@@ -3095,14 +2585,14 @@
         <v>64</v>
       </c>
       <c r="B8" s="5" t="str">
-        <f>[3]Analyses!A12</f>
+        <f>[1]Analyses!A12</f>
         <v>AO-W3-2</v>
       </c>
       <c r="C8" s="4">
         <v>42478</v>
       </c>
       <c r="D8" s="4">
-        <f>[3]Analyses!C12</f>
+        <f>[1]Analyses!C12</f>
         <v>42478</v>
       </c>
     </row>
@@ -3111,14 +2601,14 @@
         <v>65</v>
       </c>
       <c r="B9" s="5" t="str">
-        <f>[3]Analyses!A13</f>
+        <f>[1]Analyses!A13</f>
         <v>AO-W3-3</v>
       </c>
       <c r="C9" s="4">
         <v>42481</v>
       </c>
       <c r="D9" s="4">
-        <f>[3]Analyses!C13</f>
+        <f>[1]Analyses!C13</f>
         <v>42481</v>
       </c>
     </row>
@@ -3127,14 +2617,14 @@
         <v>66</v>
       </c>
       <c r="B10" s="5" t="str">
-        <f>[3]Analyses!A14</f>
+        <f>[1]Analyses!A14</f>
         <v>AO-W4-1</v>
       </c>
       <c r="C10" s="4">
         <v>42486</v>
       </c>
       <c r="D10" s="4">
-        <f>[3]Analyses!C14</f>
+        <f>[1]Analyses!C14</f>
         <v>42486</v>
       </c>
     </row>
@@ -3143,12 +2633,12 @@
         <v>67</v>
       </c>
       <c r="B11" s="5" t="str">
-        <f>[3]Analyses!A15</f>
+        <f>[1]Analyses!A15</f>
         <v>AO-W5-1</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4">
-        <f>[3]Analyses!C15</f>
+        <f>[1]Analyses!C15</f>
         <v>42493</v>
       </c>
     </row>
@@ -3157,14 +2647,14 @@
         <v>68</v>
       </c>
       <c r="B12" s="5" t="str">
-        <f>[3]Analyses!A16</f>
+        <f>[1]Analyses!A16</f>
         <v>AO-W5-2</v>
       </c>
       <c r="C12" s="4">
         <v>42493</v>
       </c>
       <c r="D12" s="4">
-        <f>[3]Analyses!C16</f>
+        <f>[1]Analyses!C16</f>
         <v>42493</v>
       </c>
     </row>
@@ -3173,14 +2663,14 @@
         <v>69</v>
       </c>
       <c r="B13" s="5" t="str">
-        <f>[3]Analyses!A17</f>
+        <f>[1]Analyses!A17</f>
         <v>AO-W6-1</v>
       </c>
       <c r="C13" s="4">
         <v>42500</v>
       </c>
       <c r="D13" s="4">
-        <f>[3]Analyses!C17</f>
+        <f>[1]Analyses!C17</f>
         <v>42500</v>
       </c>
     </row>
@@ -3189,12 +2679,12 @@
         <v>70</v>
       </c>
       <c r="B14" s="5" t="str">
-        <f>[3]Analyses!A18</f>
+        <f>[1]Analyses!A18</f>
         <v>AO-W6-2</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4">
-        <f>[3]Analyses!C18</f>
+        <f>[1]Analyses!C18</f>
         <v>42503</v>
       </c>
     </row>
@@ -3203,12 +2693,12 @@
         <v>71</v>
       </c>
       <c r="B15" s="5" t="str">
-        <f>[3]Analyses!A19</f>
+        <f>[1]Analyses!A19</f>
         <v>AO-W6-3</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4">
-        <f>[3]Analyses!C19</f>
+        <f>[1]Analyses!C19</f>
         <v>42503</v>
       </c>
     </row>
@@ -3217,14 +2707,14 @@
         <v>72</v>
       </c>
       <c r="B16" s="5" t="str">
-        <f>[3]Analyses!A20</f>
+        <f>[1]Analyses!A20</f>
         <v>AO-W6-4</v>
       </c>
       <c r="C16" s="4">
         <v>42503</v>
       </c>
       <c r="D16" s="4">
-        <f>[3]Analyses!C20</f>
+        <f>[1]Analyses!C20</f>
         <v>42503</v>
       </c>
     </row>
@@ -3233,14 +2723,14 @@
         <v>73</v>
       </c>
       <c r="B17" s="5" t="str">
-        <f>[3]Analyses!A21</f>
+        <f>[1]Analyses!A21</f>
         <v>AO-W7-1</v>
       </c>
       <c r="C17" s="4">
         <v>42507</v>
       </c>
       <c r="D17" s="4">
-        <f>[3]Analyses!C21</f>
+        <f>[1]Analyses!C21</f>
         <v>42507</v>
       </c>
     </row>
@@ -3249,14 +2739,14 @@
         <v>74</v>
       </c>
       <c r="B18" s="5" t="str">
-        <f>[3]Analyses!A23</f>
+        <f>[1]Analyses!A23</f>
         <v>AO-W8-1</v>
       </c>
       <c r="C18" s="4">
         <v>42514</v>
       </c>
       <c r="D18" s="4">
-        <f>[3]Analyses!C23</f>
+        <f>[1]Analyses!C23</f>
         <v>42514</v>
       </c>
     </row>
@@ -3265,12 +2755,12 @@
         <v>75</v>
       </c>
       <c r="B19" s="5" t="str">
-        <f>[3]Analyses!A24</f>
+        <f>[1]Analyses!A24</f>
         <v>AO-W9-1</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4">
-        <f>[3]Analyses!C24</f>
+        <f>[1]Analyses!C24</f>
         <v>42521</v>
       </c>
     </row>
@@ -3279,12 +2769,12 @@
         <v>76</v>
       </c>
       <c r="B20" s="5" t="str">
-        <f>[3]Analyses!A25</f>
+        <f>[1]Analyses!A25</f>
         <v>AO-W9-2</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4">
-        <f>[3]Analyses!C25</f>
+        <f>[1]Analyses!C25</f>
         <v>42521</v>
       </c>
     </row>
@@ -3293,12 +2783,12 @@
         <v>77</v>
       </c>
       <c r="B21" s="5" t="str">
-        <f>[3]Analyses!A26</f>
+        <f>[1]Analyses!A26</f>
         <v>AO-W9-3</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4">
-        <f>[3]Analyses!C26</f>
+        <f>[1]Analyses!C26</f>
         <v>42521</v>
       </c>
     </row>
@@ -3307,14 +2797,14 @@
         <v>78</v>
       </c>
       <c r="B22" s="5" t="str">
-        <f>[3]Analyses!A27</f>
+        <f>[1]Analyses!A27</f>
         <v>AO-W9-4</v>
       </c>
       <c r="C22" s="4">
         <v>42521</v>
       </c>
       <c r="D22" s="4">
-        <f>[3]Analyses!C27</f>
+        <f>[1]Analyses!C27</f>
         <v>42521</v>
       </c>
     </row>
@@ -3323,12 +2813,12 @@
         <v>79</v>
       </c>
       <c r="B23" s="5" t="str">
-        <f>[3]Analyses!A28</f>
+        <f>[1]Analyses!A28</f>
         <v>AO-W10-1</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4">
-        <f>[3]Analyses!C28</f>
+        <f>[1]Analyses!C28</f>
         <v>42528</v>
       </c>
     </row>
@@ -3337,12 +2827,12 @@
         <v>80</v>
       </c>
       <c r="B24" s="5" t="str">
-        <f>[3]Analyses!A29</f>
+        <f>[1]Analyses!A29</f>
         <v>AO-W10-2</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4">
-        <f>[3]Analyses!C29</f>
+        <f>[1]Analyses!C29</f>
         <v>42528</v>
       </c>
     </row>
@@ -3351,12 +2841,12 @@
         <v>81</v>
       </c>
       <c r="B25" s="5" t="str">
-        <f>[3]Analyses!A30</f>
+        <f>[1]Analyses!A30</f>
         <v>AO-W10-3</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4">
-        <f>[3]Analyses!C30</f>
+        <f>[1]Analyses!C30</f>
         <v>42528</v>
       </c>
     </row>
@@ -3365,12 +2855,12 @@
         <v>82</v>
       </c>
       <c r="B26" s="5" t="str">
-        <f>[3]Analyses!A31</f>
+        <f>[1]Analyses!A31</f>
         <v>AO-W10-4</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4">
-        <f>[3]Analyses!C31</f>
+        <f>[1]Analyses!C31</f>
         <v>42528</v>
       </c>
     </row>
@@ -3379,14 +2869,14 @@
         <v>83</v>
       </c>
       <c r="B27" s="5" t="str">
-        <f>[3]Analyses!A32</f>
+        <f>[1]Analyses!A32</f>
         <v>AO-W10-5</v>
       </c>
       <c r="C27" s="4">
         <v>42528</v>
       </c>
       <c r="D27" s="4">
-        <f>[3]Analyses!C32</f>
+        <f>[1]Analyses!C32</f>
         <v>42528</v>
       </c>
     </row>
@@ -3395,12 +2885,12 @@
         <v>84</v>
       </c>
       <c r="B28" s="5" t="str">
-        <f>[3]Analyses!A33</f>
+        <f>[1]Analyses!A33</f>
         <v>AO-W11-1</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4">
-        <f>[3]Analyses!C33</f>
+        <f>[1]Analyses!C33</f>
         <v>42535</v>
       </c>
     </row>
@@ -3409,12 +2899,12 @@
         <v>85</v>
       </c>
       <c r="B29" s="5" t="str">
-        <f>[3]Analyses!A34</f>
+        <f>[1]Analyses!A34</f>
         <v>AO-W11-2</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4">
-        <f>[3]Analyses!C34</f>
+        <f>[1]Analyses!C34</f>
         <v>42535</v>
       </c>
     </row>
@@ -3423,14 +2913,14 @@
         <v>86</v>
       </c>
       <c r="B30" s="5" t="str">
-        <f>[3]Analyses!A35</f>
+        <f>[1]Analyses!A35</f>
         <v>AO-W11-3</v>
       </c>
       <c r="C30" s="4">
         <v>42535</v>
       </c>
       <c r="D30" s="4">
-        <f>[3]Analyses!C35</f>
+        <f>[1]Analyses!C35</f>
         <v>42535</v>
       </c>
     </row>
@@ -3439,12 +2929,12 @@
         <v>87</v>
       </c>
       <c r="B31" s="5" t="str">
-        <f>[3]Analyses!A36</f>
+        <f>[1]Analyses!A36</f>
         <v>AO-W12-1</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4">
-        <f>[3]Analyses!C36</f>
+        <f>[1]Analyses!C36</f>
         <v>42542</v>
       </c>
     </row>
@@ -3453,12 +2943,12 @@
         <v>88</v>
       </c>
       <c r="B32" s="5" t="str">
-        <f>[3]Analyses!A37</f>
+        <f>[1]Analyses!A37</f>
         <v>AO-W12-2</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4">
-        <f>[3]Analyses!C37</f>
+        <f>[1]Analyses!C37</f>
         <v>42542</v>
       </c>
     </row>
@@ -3467,12 +2957,12 @@
         <v>89</v>
       </c>
       <c r="B33" s="5" t="str">
-        <f>[3]Analyses!A38</f>
+        <f>[1]Analyses!A38</f>
         <v>AO-W12-3</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4">
-        <f>[3]Analyses!C38</f>
+        <f>[1]Analyses!C38</f>
         <v>42542</v>
       </c>
     </row>
@@ -3481,14 +2971,14 @@
         <v>90</v>
       </c>
       <c r="B34" s="5" t="str">
-        <f>[3]Analyses!A39</f>
+        <f>[1]Analyses!A39</f>
         <v>AO-W12-4</v>
       </c>
       <c r="C34" s="4">
         <v>42542</v>
       </c>
       <c r="D34" s="4">
-        <f>[3]Analyses!C39</f>
+        <f>[1]Analyses!C39</f>
         <v>42542</v>
       </c>
     </row>
@@ -3497,12 +2987,12 @@
         <v>91</v>
       </c>
       <c r="B35" s="5" t="str">
-        <f>[3]Analyses!A40</f>
+        <f>[1]Analyses!A40</f>
         <v>AO-W13-1</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4">
-        <f>[3]Analyses!C40</f>
+        <f>[1]Analyses!C40</f>
         <v>42549</v>
       </c>
     </row>
@@ -3511,12 +3001,12 @@
         <v>92</v>
       </c>
       <c r="B36" s="5" t="str">
-        <f>[3]Analyses!A41</f>
+        <f>[1]Analyses!A41</f>
         <v>AO-W13-2</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4">
-        <f>[3]Analyses!C41</f>
+        <f>[1]Analyses!C41</f>
         <v>42549</v>
       </c>
     </row>
@@ -3525,14 +3015,14 @@
         <v>93</v>
       </c>
       <c r="B37" s="5" t="str">
-        <f>[3]Analyses!A42</f>
+        <f>[1]Analyses!A42</f>
         <v>AO-W13-3</v>
       </c>
       <c r="C37" s="4">
         <v>42549</v>
       </c>
       <c r="D37" s="4">
-        <f>[3]Analyses!C42</f>
+        <f>[1]Analyses!C42</f>
         <v>42549</v>
       </c>
     </row>
@@ -3541,14 +3031,14 @@
         <v>94</v>
       </c>
       <c r="B38" s="5" t="str">
-        <f>[3]Analyses!A43</f>
+        <f>[1]Analyses!A43</f>
         <v>AO-W14-1</v>
       </c>
       <c r="C38" s="4">
         <v>42556</v>
       </c>
       <c r="D38" s="4">
-        <f>[3]Analyses!C43</f>
+        <f>[1]Analyses!C43</f>
         <v>42556</v>
       </c>
     </row>
@@ -3557,14 +3047,14 @@
         <v>95</v>
       </c>
       <c r="B39" s="5" t="str">
-        <f>[3]Analyses!A44</f>
+        <f>[1]Analyses!A44</f>
         <v>AO-W15-1</v>
       </c>
       <c r="C39" s="4">
         <v>42563</v>
       </c>
       <c r="D39" s="4">
-        <f>[3]Analyses!C44</f>
+        <f>[1]Analyses!C44</f>
         <v>42563</v>
       </c>
     </row>
@@ -3573,14 +3063,14 @@
         <v>96</v>
       </c>
       <c r="B40" s="5" t="str">
-        <f>[3]Analyses!A45</f>
+        <f>[1]Analyses!A45</f>
         <v>AO-W16-1</v>
       </c>
       <c r="C40" s="4">
         <v>42621</v>
       </c>
       <c r="D40" s="4">
-        <f>[3]Analyses!C45</f>
+        <f>[1]Analyses!C45</f>
         <v>42621</v>
       </c>
     </row>
@@ -3589,12 +3079,12 @@
         <v>97</v>
       </c>
       <c r="B41" s="5" t="str">
-        <f>[3]Analyses!A46</f>
+        <f>[1]Analyses!A46</f>
         <v>AO-W16-2</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4">
-        <f>[3]Analyses!C46</f>
+        <f>[1]Analyses!C46</f>
         <v>42621</v>
       </c>
     </row>
@@ -3603,12 +3093,12 @@
         <v>98</v>
       </c>
       <c r="B42" s="5" t="str">
-        <f>[3]Analyses!A47</f>
+        <f>[1]Analyses!A47</f>
         <v>AO-W16-3</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4">
-        <f>[3]Analyses!C47</f>
+        <f>[1]Analyses!C47</f>
         <v>42621</v>
       </c>
     </row>
@@ -3617,14 +3107,14 @@
         <v>99</v>
       </c>
       <c r="B43" s="5" t="str">
-        <f>[3]Analyses!A48</f>
+        <f>[1]Analyses!A48</f>
         <v>AO_W17_1</v>
       </c>
       <c r="C43" s="4">
         <v>42656</v>
       </c>
       <c r="D43" s="4">
-        <f>[3]Analyses!C48</f>
+        <f>[1]Analyses!C48</f>
         <v>42656</v>
       </c>
     </row>
@@ -3633,12 +3123,12 @@
         <v>100</v>
       </c>
       <c r="B44" s="5" t="str">
-        <f>[3]Analyses!A49</f>
+        <f>[1]Analyses!A49</f>
         <v>AO_W17_2</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4">
-        <f>[3]Analyses!C49</f>
+        <f>[1]Analyses!C49</f>
         <v>42656</v>
       </c>
     </row>
@@ -3647,12 +3137,12 @@
         <v>101</v>
       </c>
       <c r="B45" s="5" t="str">
-        <f>[3]Analyses!A50</f>
+        <f>[1]Analyses!A50</f>
         <v>AO_W17_2B</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4">
-        <f>[3]Analyses!C50</f>
+        <f>[1]Analyses!C50</f>
         <v>42656</v>
       </c>
     </row>

--- a/Data/Lab-linked/SoilCompConc_W1toW15_Smet.xlsx
+++ b/Data/Lab-linked/SoilCompConc_W1toW15_Smet.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DayTightChunks/Documents/PhD/HydrologicalMonitoring/Data/Lab-linked/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="270" windowWidth="28515" windowHeight="12465"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28520" windowHeight="12460"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,15 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -820,7 +833,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -862,12 +875,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -897,12 +910,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1109,17 +1122,17 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="11.42578125" style="7"/>
-    <col min="8" max="8" width="11.42578125" style="7"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="7"/>
+    <col min="8" max="8" width="10.83203125" style="7"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1145,7 +1158,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -1169,7 +1182,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -1193,7 +1206,7 @@
       </c>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -1217,7 +1230,7 @@
       </c>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -1243,7 +1256,7 @@
         <v>1.4648937602123611</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>104</v>
       </c>
@@ -1269,7 +1282,7 @@
         <v>1.8283699652833745</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -1295,7 +1308,7 @@
         <v>2.7672277863518882</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1321,7 +1334,7 @@
         <v>0.151271317965229</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1347,7 +1360,7 @@
         <v>4.9982885534967894E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1373,7 +1386,7 @@
         <v>1.8457371047311009</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1399,7 +1412,7 @@
         <v>0.51500638761602013</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1425,7 +1438,7 @@
         <v>0.23831766319960851</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1451,7 +1464,7 @@
         <v>0.6709542361716232</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1477,7 +1490,7 @@
         <v>0.26880404449783096</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1503,7 +1516,7 @@
         <v>2.4378949821215742E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1529,7 +1542,7 @@
         <v>3.0424364481557265E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1555,7 +1568,7 @@
         <v>0.66768371562411877</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1581,7 +1594,7 @@
         <v>9.4900894256956386E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1607,7 +1620,7 @@
         <v>9.4900894256956386E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1633,7 +1646,7 @@
         <v>9.4900894256956386E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1659,7 +1672,7 @@
         <v>9.4900894256956386E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1685,7 +1698,7 @@
         <v>9.4900894256956386E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1711,7 +1724,7 @@
         <v>9.4900894256956386E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1737,7 +1750,7 @@
         <v>1.1729519088683031</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1763,7 +1776,7 @@
         <v>0.16016327402904107</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1789,7 +1802,7 @@
         <v>2.5175462249543472E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1815,7 +1828,7 @@
         <v>2.3281068874223116E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1841,7 +1854,7 @@
         <v>5.0946906916070137E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1867,7 +1880,7 @@
         <v>3.4715700936551755E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1893,7 +1906,7 @@
         <v>3.7581092050989306E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1919,7 +1932,7 @@
         <v>1.5792484477241898E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -1945,7 +1958,7 @@
         <v>9.4900894256956386E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1971,7 +1984,7 @@
         <v>9.4900894256956386E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -1997,7 +2010,7 @@
         <v>9.4900894256956386E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -2023,7 +2036,7 @@
         <v>9.4900894256956386E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -2049,7 +2062,7 @@
         <v>9.4900894256956386E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -2075,7 +2088,7 @@
         <v>9.4900894256956386E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -2101,7 +2114,7 @@
         <v>3.3148027184235367E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2127,7 +2140,7 @@
         <v>5.6964185368284598E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -2153,7 +2166,7 @@
         <v>1.6682090952371866</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -2179,7 +2192,7 @@
         <v>0.18382775838014603</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -2205,7 +2218,7 @@
         <v>0.31521511629310506</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -2231,7 +2244,7 @@
         <v>7.954793593860944E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -2251,13 +2264,13 @@
         <v>42507.386111111111</v>
       </c>
       <c r="G44" s="9">
-        <v>3.6757789760730963</v>
+        <v>0.74</v>
       </c>
       <c r="H44" s="10">
-        <v>0.7978019513161887</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -2283,7 +2296,7 @@
         <v>2.351439086363832E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2309,7 +2322,7 @@
         <v>0.65384240384155223</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -2335,7 +2348,7 @@
         <v>1.3449321340358764</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -2361,7 +2374,7 @@
         <v>1.4839379268362554E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -2387,7 +2400,7 @@
         <v>9.4900894256956386E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2413,7 +2426,7 @@
         <v>9.4900894256956386E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -2439,7 +2452,7 @@
         <v>9.4900894256956386E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -2478,9 +2491,9 @@
       <selection sqref="A1:D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>55</v>
@@ -2490,7 +2503,7 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -2506,7 +2519,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -2520,7 +2533,7 @@
         <v>42465</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -2536,7 +2549,7 @@
         <v>42465</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -2550,7 +2563,7 @@
         <v>42472</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -2566,7 +2579,7 @@
         <v>42472</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -2580,7 +2593,7 @@
         <v>42478</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -2596,7 +2609,7 @@
         <v>42478</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -2612,7 +2625,7 @@
         <v>42481</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -2628,7 +2641,7 @@
         <v>42486</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -2642,7 +2655,7 @@
         <v>42493</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -2658,7 +2671,7 @@
         <v>42493</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -2674,7 +2687,7 @@
         <v>42500</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -2688,7 +2701,7 @@
         <v>42503</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -2702,7 +2715,7 @@
         <v>42503</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -2718,7 +2731,7 @@
         <v>42503</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -2734,7 +2747,7 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -2750,7 +2763,7 @@
         <v>42514</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -2764,7 +2777,7 @@
         <v>42521</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -2778,7 +2791,7 @@
         <v>42521</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -2792,7 +2805,7 @@
         <v>42521</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -2808,7 +2821,7 @@
         <v>42521</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -2822,7 +2835,7 @@
         <v>42528</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -2836,7 +2849,7 @@
         <v>42528</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2850,7 +2863,7 @@
         <v>42528</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -2864,7 +2877,7 @@
         <v>42528</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -2880,7 +2893,7 @@
         <v>42528</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -2894,7 +2907,7 @@
         <v>42535</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -2908,7 +2921,7 @@
         <v>42535</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -2924,7 +2937,7 @@
         <v>42535</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -2938,7 +2951,7 @@
         <v>42542</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -2952,7 +2965,7 @@
         <v>42542</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -2966,7 +2979,7 @@
         <v>42542</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -2982,7 +2995,7 @@
         <v>42542</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -2996,7 +3009,7 @@
         <v>42549</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -3010,7 +3023,7 @@
         <v>42549</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -3026,7 +3039,7 @@
         <v>42549</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -3042,7 +3055,7 @@
         <v>42556</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -3058,7 +3071,7 @@
         <v>42563</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -3074,7 +3087,7 @@
         <v>42621</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -3088,7 +3101,7 @@
         <v>42621</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -3102,7 +3115,7 @@
         <v>42621</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>99</v>
       </c>
@@ -3118,7 +3131,7 @@
         <v>42656</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -3132,7 +3145,7 @@
         <v>42656</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -3157,7 +3170,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Lab-linked/SoilCompConc_W1toW15_Smet.xlsx
+++ b/Data/Lab-linked/SoilCompConc_W1toW15_Smet.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="111">
   <si>
     <t>Filename</t>
   </si>
@@ -359,6 +359,12 @@
   </si>
   <si>
     <t>AW-S-0x</t>
+  </si>
+  <si>
+    <t>In CSV, type:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =TEXT(CELL.ID, "dd/mm/yyyy hh:mm")</t>
   </si>
 </sst>
 </file>
@@ -369,7 +375,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +394,22 @@
       <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -413,9 +435,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -446,7 +470,9 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1119,20 +1145,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="10.83203125" style="7"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="7"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1157,8 +1185,14 @@
       <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -1181,8 +1215,12 @@
         <v>1.8293100230621178E-2</v>
       </c>
       <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K2" s="4" t="str">
+        <f>TEXT(F2, "dd/mm/yyyy hh:mm")</f>
+        <v>25/03/2016 00:04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -1206,7 +1244,7 @@
       </c>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -1230,7 +1268,7 @@
       </c>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -1256,7 +1294,7 @@
         <v>1.4648937602123611</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>104</v>
       </c>
@@ -1282,7 +1320,7 @@
         <v>1.8283699652833745</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -1308,7 +1346,7 @@
         <v>2.7672277863518882</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1334,7 +1372,7 @@
         <v>0.151271317965229</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1360,7 +1398,7 @@
         <v>4.9982885534967894E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1386,7 +1424,7 @@
         <v>1.8457371047311009</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1412,7 +1450,7 @@
         <v>0.51500638761602013</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1438,7 +1476,7 @@
         <v>0.23831766319960851</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1464,7 +1502,7 @@
         <v>0.6709542361716232</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1490,7 +1528,7 @@
         <v>0.26880404449783096</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1516,7 +1554,7 @@
         <v>2.4378949821215742E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>

--- a/Data/Lab-linked/SoilCompConc_W1toW15_Smet.xlsx
+++ b/Data/Lab-linked/SoilCompConc_W1toW15_Smet.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DayTightChunks/Documents/PhD/HydrologicalMonitoring/Data/Lab-linked/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28520" windowHeight="12460"/>
+    <workbookView xWindow="285" yWindow="465" windowWidth="28515" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,11 +14,8 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -32,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="112">
   <si>
     <t>Filename</t>
   </si>
@@ -364,18 +356,22 @@
     <t>In CSV, type:</t>
   </si>
   <si>
-    <t xml:space="preserve"> =TEXT(CELL.ID, "dd/mm/yyyy hh:mm")</t>
+    <t>English (mac)
+=TEXT(CELL.ID, "dd/mm/yyyy hh:mm")</t>
+  </si>
+  <si>
+    <t>French (PC labo) 
+=TEXTE(CELL.ID, "JJ/MM/AAAA HH:MM")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +407,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -441,7 +450,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -464,15 +473,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1145,22 +1155,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="10.83203125" style="7"/>
-    <col min="6" max="6" width="17.1640625" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="7"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" customWidth="1"/>
+    <col min="2" max="3" width="10.85546875" style="7"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="7"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1191,8 +1202,11 @@
       <c r="L1" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -1215,12 +1229,16 @@
         <v>1.8293100230621178E-2</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="K2" s="4" t="str">
+      <c r="L2" s="4" t="e">
         <f>TEXT(F2, "dd/mm/yyyy hh:mm")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M2" t="str">
+        <f>TEXT(F2, "jj/mm/aaaa hh:mm")</f>
         <v>25/03/2016 00:04</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -1243,8 +1261,16 @@
         <v>2.0499617162990518E-2</v>
       </c>
       <c r="H3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L3" s="4" t="e">
+        <f>TEXT(F3, "dd/mm/yyyy hh:mm")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M52" si="0">TEXT(F3, "jj/mm/aaaa hh:mm")</f>
+        <v>25/03/2016 00:04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -1267,8 +1293,16 @@
         <v>2.851923954541466E-2</v>
       </c>
       <c r="H4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L4" s="4" t="e">
+        <f>TEXT(F4, "dd/mm/yyyy hh:mm")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v>25/03/2016 00:04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -1287,14 +1321,23 @@
       <c r="F5" s="4">
         <v>42459.512499999997</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5">
         <v>0.88933584411890654</v>
       </c>
-      <c r="H5" s="11">
-        <v>1.4648937602123611</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>0.13340037661783596</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="L5" s="4" t="e">
+        <f>TEXT(F5, "dd/mm/yyyy hh:mm")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v>30/03/2016 12:18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>104</v>
       </c>
@@ -1313,14 +1356,19 @@
       <c r="F6" s="4">
         <v>42459.512499999997</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6">
         <v>0.80076800129076531</v>
       </c>
-      <c r="H6" s="11">
-        <v>1.8283699652833745</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>0.1201152001936148</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v>30/03/2016 12:18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -1339,14 +1387,19 @@
       <c r="F7" s="4">
         <v>42459.512499999997</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7">
         <v>3.2039808097778946</v>
       </c>
-      <c r="H7" s="11">
-        <v>2.7672277863518882</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>0.48059712146668415</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v>30/03/2016 12:18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1365,14 +1418,19 @@
       <c r="F8" s="4">
         <v>42465.630555555559</v>
       </c>
-      <c r="G8" s="9">
-        <v>1.5895551317455501</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0.151271317965229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>1.5895551317455463</v>
+      </c>
+      <c r="H8">
+        <v>0.15127131796522916</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="M8" t="str">
+        <f t="shared" si="0"/>
+        <v>05/04/2016 15:08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1391,14 +1449,19 @@
       <c r="F9" s="4">
         <v>42474.577777777777</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9">
         <v>4.8244413875424978</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9">
         <v>4.9982885534967894E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J9" s="11"/>
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v>14/04/2016 13:52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1417,14 +1480,19 @@
       <c r="F10" s="4">
         <v>42478.854166666664</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10">
         <v>4.4742033464515245</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10">
         <v>1.8457371047311009</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J10" s="11"/>
+      <c r="M10" t="str">
+        <f t="shared" si="0"/>
+        <v>18/04/2016 20:30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1443,14 +1511,19 @@
       <c r="F11" s="4">
         <v>42486.493055555555</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11">
         <v>3.6200101140894532</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11">
         <v>0.51500638761602013</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J11" s="10"/>
+      <c r="M11" t="str">
+        <f t="shared" si="0"/>
+        <v>26/04/2016 11:50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1469,14 +1542,19 @@
       <c r="F12" s="4">
         <v>42493.548611111109</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12">
         <v>0.9541818700311292</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12">
         <v>0.23831766319960851</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J12" s="10"/>
+      <c r="M12" t="str">
+        <f t="shared" si="0"/>
+        <v>03/05/2016 13:10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1495,14 +1573,19 @@
       <c r="F13" s="4">
         <v>42500.004166666666</v>
       </c>
-      <c r="G13" s="9">
-        <v>2.4455421988735617</v>
-      </c>
-      <c r="H13" s="10">
-        <v>0.6709542361716232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>1.7061067405721042</v>
+      </c>
+      <c r="H13">
+        <v>0.87819817707220671</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="M13" t="str">
+        <f t="shared" si="0"/>
+        <v>10/05/2016 00:06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1521,14 +1604,19 @@
       <c r="F14" s="4">
         <v>42507.386111111111</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14">
         <v>1.5003898386420318</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14">
         <v>0.26880404449783096</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J14" s="12"/>
+      <c r="M14" t="str">
+        <f t="shared" si="0"/>
+        <v>17/05/2016 09:16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1547,14 +1635,19 @@
       <c r="F15" s="4">
         <v>42514.5</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15">
         <v>1.0147379179594411</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15">
         <v>2.4378949821215742E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J15" s="12"/>
+      <c r="M15" t="str">
+        <f t="shared" si="0"/>
+        <v>24/05/2016 12:00</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1573,14 +1666,19 @@
       <c r="F16" s="4">
         <v>42521.5</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16">
         <v>0.85862977090762593</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16">
         <v>3.0424364481557265E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J16" s="12"/>
+      <c r="M16" t="str">
+        <f t="shared" si="0"/>
+        <v>31/05/2016 12:00</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1599,14 +1697,19 @@
       <c r="F17" s="4">
         <v>42528.5</v>
       </c>
-      <c r="G17" s="9">
-        <v>2.0423207888456698</v>
-      </c>
-      <c r="H17" s="10">
-        <v>0.66768371562411877</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>1.5997738816707994</v>
+      </c>
+      <c r="H17">
+        <v>6.6568250696954365E-2</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="M17" t="str">
+        <f t="shared" si="0"/>
+        <v>07/06/2016 12:00</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1625,14 +1728,19 @@
       <c r="F18" s="4">
         <v>42535.54583333333</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18">
         <v>2.0971600808769915</v>
       </c>
-      <c r="H18" s="10">
-        <v>9.4900894256956386E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>0.31457401213154873</v>
+      </c>
+      <c r="J18" s="13"/>
+      <c r="M18" t="str">
+        <f t="shared" si="0"/>
+        <v>14/06/2016 13:06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1651,14 +1759,19 @@
       <c r="F19" s="4">
         <v>42542.5</v>
       </c>
-      <c r="G19" s="9">
-        <v>1.7092545886049291</v>
-      </c>
-      <c r="H19" s="10">
-        <v>9.4900894256956386E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>0.3790685881927528</v>
+      </c>
+      <c r="H19">
+        <v>7.6862511517530284E-3</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="M19" t="str">
+        <f t="shared" si="0"/>
+        <v>21/06/2016 12:00</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1677,14 +1790,19 @@
       <c r="F20" s="4">
         <v>42549.37222222222</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20">
         <v>0.25764692691783236</v>
       </c>
-      <c r="H20" s="10">
-        <v>9.4900894256956386E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>6.9086919828738791E-4</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="M20" t="str">
+        <f t="shared" si="0"/>
+        <v>28/06/2016 08:56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1703,14 +1821,19 @@
       <c r="F21" s="8">
         <v>42555.612500000003</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21">
         <v>1.3336411412228617</v>
       </c>
-      <c r="H21" s="10">
-        <v>9.4900894256956386E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>0.20004617118342924</v>
+      </c>
+      <c r="J21" s="13"/>
+      <c r="M21" t="str">
+        <f t="shared" si="0"/>
+        <v>04/07/2016 14:42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1729,14 +1852,19 @@
       <c r="F22" s="4">
         <v>42563.041666666664</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22">
         <v>0.95642005888328807</v>
       </c>
-      <c r="H22" s="10">
-        <v>9.4900894256956386E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>0.14346300883249322</v>
+      </c>
+      <c r="J22" s="13"/>
+      <c r="M22" t="str">
+        <f t="shared" si="0"/>
+        <v>12/07/2016 01:00</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1755,14 +1883,19 @@
       <c r="F23" s="4">
         <v>42465.630555555559</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23">
         <v>6.5345160966768647</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23">
         <v>9.4900894256956386E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J23" s="10"/>
+      <c r="M23" t="str">
+        <f t="shared" si="0"/>
+        <v>05/04/2016 15:08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1781,14 +1914,19 @@
       <c r="F24" s="4">
         <v>42474.577777777777</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24">
         <v>4.2195143966507187</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24">
         <v>1.1729519088683031</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J24" s="11"/>
+      <c r="M24" t="str">
+        <f t="shared" si="0"/>
+        <v>14/04/2016 13:52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1807,14 +1945,19 @@
       <c r="F25" s="4">
         <v>42478.854166666664</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25">
         <v>4.2156270039737453</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25">
         <v>0.16016327402904107</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J25" s="11"/>
+      <c r="M25" t="str">
+        <f t="shared" si="0"/>
+        <v>18/04/2016 20:30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1833,14 +1976,19 @@
       <c r="F26" s="4">
         <v>42486.493055555555</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26">
         <v>2.2252943179529803</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26">
         <v>2.5175462249543472E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J26" s="12"/>
+      <c r="M26" t="str">
+        <f t="shared" si="0"/>
+        <v>26/04/2016 11:50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1859,14 +2007,19 @@
       <c r="F27" s="4">
         <v>42493.548611111109</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27">
         <v>2.76408391035792</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27">
         <v>2.3281068874223116E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J27" s="10"/>
+      <c r="M27" t="str">
+        <f t="shared" si="0"/>
+        <v>03/05/2016 13:10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1885,14 +2038,19 @@
       <c r="F28" s="4">
         <v>42500.004166666666</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28">
         <v>2.1038123097257184</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28">
         <v>5.0946906916070137E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J28" s="10"/>
+      <c r="M28" t="str">
+        <f t="shared" si="0"/>
+        <v>10/05/2016 00:06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1911,14 +2069,19 @@
       <c r="F29" s="4">
         <v>42507.386111111111</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29">
         <v>1.5254541300039282</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29">
         <v>3.4715700936551755E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J29" s="10"/>
+      <c r="M29" t="str">
+        <f t="shared" si="0"/>
+        <v>17/05/2016 09:16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1937,14 +2100,19 @@
       <c r="F30" s="4">
         <v>42514.5</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30">
         <v>1.0676245984997217</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30">
         <v>3.7581092050989306E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J30" s="10"/>
+      <c r="M30" t="str">
+        <f t="shared" si="0"/>
+        <v>24/05/2016 12:00</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1963,14 +2131,19 @@
       <c r="F31" s="4">
         <v>42521.5</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31">
         <v>1.0374518177054053</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31">
         <v>1.5792484477241898E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J31" s="12"/>
+      <c r="M31" t="str">
+        <f t="shared" si="0"/>
+        <v>31/05/2016 12:00</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -1989,14 +2162,19 @@
       <c r="F32" s="4">
         <v>42528.5</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32">
         <v>1.851077179543845</v>
       </c>
-      <c r="H32" s="10">
-        <v>9.4900894256956386E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>8.9051653002847793E-3</v>
+      </c>
+      <c r="J32" s="12"/>
+      <c r="M32" t="str">
+        <f t="shared" si="0"/>
+        <v>07/06/2016 12:00</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -2015,14 +2193,19 @@
       <c r="F33" s="4">
         <v>42535.54583333333</v>
       </c>
-      <c r="G33" s="9">
-        <v>1.6009073378368643</v>
-      </c>
-      <c r="H33" s="10">
-        <v>9.4900894256956386E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>0.45443580536745559</v>
+      </c>
+      <c r="H33">
+        <v>1.8175206326333675E-2</v>
+      </c>
+      <c r="J33" s="12"/>
+      <c r="M33" t="str">
+        <f t="shared" si="0"/>
+        <v>14/06/2016 13:06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2041,14 +2224,19 @@
       <c r="F34" s="4">
         <v>42542.5</v>
       </c>
-      <c r="G34" s="9">
-        <v>2.796793089552009</v>
-      </c>
-      <c r="H34" s="10">
-        <v>9.4900894256956386E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>0.7739230294042081</v>
+      </c>
+      <c r="H34">
+        <v>1.8016991392777255E-2</v>
+      </c>
+      <c r="J34" s="12"/>
+      <c r="M34" t="str">
+        <f t="shared" si="0"/>
+        <v>21/06/2016 12:00</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -2067,14 +2255,19 @@
       <c r="F35" s="4">
         <v>42549.37222222222</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35">
         <v>1.1937055417154974</v>
       </c>
-      <c r="H35" s="10">
-        <v>9.4900894256956386E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>0.1790558312573246</v>
+      </c>
+      <c r="J35" s="13"/>
+      <c r="M35" t="str">
+        <f t="shared" si="0"/>
+        <v>28/06/2016 08:56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -2093,14 +2286,19 @@
       <c r="F36" s="8">
         <v>42555.612500000003</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36">
         <v>1.0220274541954517</v>
       </c>
-      <c r="H36" s="10">
-        <v>9.4900894256956386E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>0.15330411812931774</v>
+      </c>
+      <c r="J36" s="13"/>
+      <c r="M36" t="str">
+        <f t="shared" si="0"/>
+        <v>04/07/2016 14:42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -2119,14 +2317,19 @@
       <c r="F37" s="4">
         <v>42563.041666666664</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37">
         <v>1.1610021513926232</v>
       </c>
-      <c r="H37" s="10">
-        <v>9.4900894256956386E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>0.17415032270889347</v>
+      </c>
+      <c r="J37" s="13"/>
+      <c r="M37" t="str">
+        <f t="shared" si="0"/>
+        <v>12/07/2016 01:00</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -2145,14 +2348,19 @@
       <c r="F38" s="4">
         <v>42465.630555555559</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38">
         <v>1.4632720947001103</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38">
         <v>3.3148027184235367E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J38" s="10"/>
+      <c r="M38" t="str">
+        <f t="shared" si="0"/>
+        <v>05/04/2016 15:08</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2171,14 +2379,19 @@
       <c r="F39" s="4">
         <v>42474.577777777777</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39">
         <v>3.0154551034462935</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39">
         <v>5.6964185368284598E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J39" s="11"/>
+      <c r="M39" t="str">
+        <f t="shared" si="0"/>
+        <v>14/04/2016 13:52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -2197,14 +2410,19 @@
       <c r="F40" s="4">
         <v>42478.854166666664</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40">
         <v>5.323943431661009</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40">
         <v>1.6682090952371866</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J40" s="11"/>
+      <c r="M40" t="str">
+        <f t="shared" si="0"/>
+        <v>18/04/2016 20:30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -2223,14 +2441,19 @@
       <c r="F41" s="4">
         <v>42486.493055555555</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41">
         <v>4.0263597252140206</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41">
         <v>0.18382775838014603</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J41" s="10"/>
+      <c r="M41" t="str">
+        <f t="shared" si="0"/>
+        <v>26/04/2016 11:50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -2249,14 +2472,19 @@
       <c r="F42" s="4">
         <v>42493.548611111109</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42">
         <v>1.6651244634779927</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42">
         <v>0.31521511629310506</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J42" s="10"/>
+      <c r="M42" t="str">
+        <f t="shared" si="0"/>
+        <v>03/05/2016 13:10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -2275,14 +2503,19 @@
       <c r="F43" s="4">
         <v>42500.004166666666</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43">
         <v>1.8243919123532297</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43">
         <v>7.954793593860944E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J43" s="10"/>
+      <c r="M43" t="str">
+        <f t="shared" si="0"/>
+        <v>10/05/2016 00:06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -2301,14 +2534,19 @@
       <c r="F44" s="4">
         <v>42507.386111111111</v>
       </c>
-      <c r="G44" s="9">
-        <v>0.74</v>
-      </c>
-      <c r="H44" s="10">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <v>1.6475781580315261</v>
+      </c>
+      <c r="H44">
+        <v>0.13668880366306371</v>
+      </c>
+      <c r="J44" s="12"/>
+      <c r="M44" t="str">
+        <f t="shared" si="0"/>
+        <v>17/05/2016 09:16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -2327,14 +2565,19 @@
       <c r="F45" s="4">
         <v>42514.5</v>
       </c>
-      <c r="G45" s="9">
-        <v>2.3401342425648899</v>
-      </c>
-      <c r="H45" s="10">
-        <v>2.351439086363832E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <v>1.4996042410770574</v>
+      </c>
+      <c r="H45">
+        <v>0.92089366013670393</v>
+      </c>
+      <c r="J45" s="12"/>
+      <c r="M45" t="str">
+        <f t="shared" si="0"/>
+        <v>24/05/2016 12:00</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2353,14 +2596,19 @@
       <c r="F46" s="4">
         <v>42521.5</v>
       </c>
-      <c r="G46" s="9">
-        <v>2.1759287488992474</v>
-      </c>
-      <c r="H46" s="10">
+      <c r="G46">
+        <v>2.3590750200722357</v>
+      </c>
+      <c r="H46">
         <v>0.65384240384155223</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J46" s="12"/>
+      <c r="M46" t="str">
+        <f t="shared" si="0"/>
+        <v>31/05/2016 12:00</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -2379,14 +2627,19 @@
       <c r="F47" s="4">
         <v>42528.5</v>
       </c>
-      <c r="G47" s="9">
-        <v>3.0606484321396739</v>
-      </c>
-      <c r="H47" s="10">
-        <v>1.3449321340358764</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <v>2.797507226869163</v>
+      </c>
+      <c r="H47">
+        <v>1.2398400824123912</v>
+      </c>
+      <c r="J47" s="10"/>
+      <c r="M47" t="str">
+        <f t="shared" si="0"/>
+        <v>07/06/2016 12:00</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -2405,14 +2658,19 @@
       <c r="F48" s="4">
         <v>42535.54583333333</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48">
         <v>2.4961286762469523</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48">
         <v>1.4839379268362554E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J48" s="12"/>
+      <c r="M48" t="str">
+        <f t="shared" si="0"/>
+        <v>14/06/2016 13:06</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -2431,14 +2689,19 @@
       <c r="F49" s="4">
         <v>42542.5</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49">
         <v>2.7372475095066355</v>
       </c>
-      <c r="H49" s="10">
-        <v>9.4900894256956386E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <v>0.41058712642599532</v>
+      </c>
+      <c r="J49" s="13"/>
+      <c r="M49" t="str">
+        <f t="shared" si="0"/>
+        <v>21/06/2016 12:00</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2457,14 +2720,19 @@
       <c r="F50" s="4">
         <v>42549.37222222222</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50">
         <v>2.3693944756009291</v>
       </c>
-      <c r="H50" s="10">
-        <v>9.4900894256956386E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <v>0.35540917134013933</v>
+      </c>
+      <c r="J50" s="12"/>
+      <c r="M50" t="str">
+        <f t="shared" si="0"/>
+        <v>28/06/2016 08:56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -2483,14 +2751,19 @@
       <c r="F51" s="8">
         <v>42555.612500000003</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51">
         <v>1.5868495293533809</v>
       </c>
-      <c r="H51" s="10">
-        <v>9.4900894256956386E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <v>0.23802742940300711</v>
+      </c>
+      <c r="J51" s="13"/>
+      <c r="M51" t="str">
+        <f t="shared" si="0"/>
+        <v>04/07/2016 14:42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -2509,11 +2782,16 @@
       <c r="F52" s="4">
         <v>42563.041666666664</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52">
         <v>1.311905359014532</v>
       </c>
-      <c r="H52" s="10">
-        <v>9.4900894256956386E-2</v>
+      <c r="H52">
+        <v>0.19678580385217978</v>
+      </c>
+      <c r="J52" s="13"/>
+      <c r="M52" t="str">
+        <f t="shared" si="0"/>
+        <v>12/07/2016 01:00</v>
       </c>
     </row>
   </sheetData>
@@ -2529,7 +2807,7 @@
       <selection sqref="A1:D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
@@ -3061,7 +3339,7 @@
         <v>42549</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -3077,7 +3355,7 @@
         <v>42549</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -3093,7 +3371,7 @@
         <v>42556</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -3109,7 +3387,7 @@
         <v>42563</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -3125,7 +3403,7 @@
         <v>42621</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -3139,7 +3417,7 @@
         <v>42621</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -3153,7 +3431,7 @@
         <v>42621</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>99</v>
       </c>
@@ -3169,7 +3447,7 @@
         <v>42656</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -3183,7 +3461,7 @@
         <v>42656</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -3208,7 +3486,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Lab-linked/SoilCompConc_W1toW15_Smet.xlsx
+++ b/Data/Lab-linked/SoilCompConc_W1toW15_Smet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="465" windowWidth="28515" windowHeight="12465"/>
+    <workbookView xWindow="14745" yWindow="465" windowWidth="14055" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -368,9 +368,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,16 +447,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -472,7 +466,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1158,14 +1151,14 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="G2" sqref="G2:H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="10.85546875" style="7"/>
+    <col min="2" max="3" width="10.85546875" style="6"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="7"/>
+    <col min="8" max="8" width="10.85546875" style="6"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="20.28515625" customWidth="1"/>
     <col min="13" max="13" width="16.42578125" customWidth="1"/>
@@ -1210,26 +1203,28 @@
       <c r="A2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D2">
         <v>-1</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>42459</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>42454.00277777778</v>
       </c>
-      <c r="G2" s="9">
-        <v>1.8293100230621178E-2</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="L2" s="4" t="e">
+      <c r="G2">
+        <v>6.8592973637268254E-2</v>
+      </c>
+      <c r="H2">
+        <v>1.0288946045590238E-2</v>
+      </c>
+      <c r="L2" s="3" t="e">
         <f>TEXT(F2, "dd/mm/yyyy hh:mm")</f>
         <v>#VALUE!</v>
       </c>
@@ -1242,26 +1237,28 @@
       <c r="A3" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D3">
         <v>-1</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>42459</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>42454.00277777778</v>
       </c>
-      <c r="G3" s="9">
-        <v>2.0499617162990518E-2</v>
-      </c>
-      <c r="H3"/>
-      <c r="L3" s="4" t="e">
+      <c r="G3">
+        <v>4.3806464368575868E-2</v>
+      </c>
+      <c r="H3">
+        <v>6.5709696552863801E-3</v>
+      </c>
+      <c r="L3" s="3" t="e">
         <f>TEXT(F3, "dd/mm/yyyy hh:mm")</f>
         <v>#VALUE!</v>
       </c>
@@ -1274,26 +1271,28 @@
       <c r="A4" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D4">
         <v>-1</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>42459</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>42454.00277777778</v>
       </c>
-      <c r="G4" s="9">
-        <v>2.851923954541466E-2</v>
-      </c>
-      <c r="H4"/>
-      <c r="L4" s="4" t="e">
+      <c r="G4">
+        <v>7.6020978797797734E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.140314681966966E-2</v>
+      </c>
+      <c r="L4" s="3" t="e">
         <f>TEXT(F4, "dd/mm/yyyy hh:mm")</f>
         <v>#VALUE!</v>
       </c>
@@ -1306,29 +1305,29 @@
       <c r="A5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>42459</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>42459.512499999997</v>
       </c>
       <c r="G5">
-        <v>0.88933584411890654</v>
+        <v>1.0375584848053914</v>
       </c>
       <c r="H5">
-        <v>0.13340037661783596</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="L5" s="4" t="e">
+        <v>0.15563377272080869</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="3" t="e">
         <f>TEXT(F5, "dd/mm/yyyy hh:mm")</f>
         <v>#VALUE!</v>
       </c>
@@ -1341,28 +1340,28 @@
       <c r="A6" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>42459</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>42459.512499999997</v>
       </c>
       <c r="G6">
-        <v>0.80076800129076531</v>
+        <v>0.93422933483922665</v>
       </c>
       <c r="H6">
-        <v>0.1201152001936148</v>
-      </c>
-      <c r="J6" s="10"/>
+        <v>0.140134400225884</v>
+      </c>
+      <c r="K6" s="8"/>
       <c r="M6" t="str">
         <f t="shared" si="0"/>
         <v>30/03/2016 12:18</v>
@@ -1372,28 +1371,28 @@
       <c r="A7" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>42459</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>42459.512499999997</v>
       </c>
       <c r="G7">
-        <v>3.2039808097778946</v>
+        <v>3.7379776114075445</v>
       </c>
       <c r="H7">
-        <v>0.48059712146668415</v>
-      </c>
-      <c r="J7" s="10"/>
+        <v>0.56069664171113165</v>
+      </c>
+      <c r="K7" s="8"/>
       <c r="M7" t="str">
         <f t="shared" si="0"/>
         <v>30/03/2016 12:18</v>
@@ -1403,28 +1402,28 @@
       <c r="A8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>42465</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>42465.630555555559</v>
       </c>
       <c r="G8">
-        <v>1.5895551317455463</v>
-      </c>
-      <c r="H8">
-        <v>0.15127131796522916</v>
-      </c>
-      <c r="J8" s="10"/>
+        <v>1.8544809870364711</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.17648320429276748</v>
+      </c>
+      <c r="K8" s="8"/>
       <c r="M8" t="str">
         <f t="shared" si="0"/>
         <v>05/04/2016 15:08</v>
@@ -1434,28 +1433,28 @@
       <c r="A9" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>42474</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>42474.577777777777</v>
       </c>
       <c r="G9">
-        <v>4.8244413875424978</v>
-      </c>
-      <c r="H9">
-        <v>4.9982885534967894E-2</v>
-      </c>
-      <c r="J9" s="11"/>
+        <v>5.6285149521329148</v>
+      </c>
+      <c r="H9" s="8">
+        <v>5.8313366457463101E-2</v>
+      </c>
+      <c r="K9" s="9"/>
       <c r="M9" t="str">
         <f t="shared" si="0"/>
         <v>14/04/2016 13:52</v>
@@ -1465,28 +1464,28 @@
       <c r="A10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>42478</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>42478.854166666664</v>
       </c>
       <c r="G10">
-        <v>4.4742033464515245</v>
-      </c>
-      <c r="H10">
-        <v>1.8457371047311009</v>
-      </c>
-      <c r="J10" s="11"/>
+        <v>5.2199039041934467</v>
+      </c>
+      <c r="H10" s="8">
+        <v>2.1533599555196212</v>
+      </c>
+      <c r="K10" s="9"/>
       <c r="M10" t="str">
         <f t="shared" si="0"/>
         <v>18/04/2016 20:30</v>
@@ -1496,28 +1495,28 @@
       <c r="A11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>42486</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>42486.493055555555</v>
       </c>
       <c r="G11">
-        <v>3.6200101140894532</v>
-      </c>
-      <c r="H11">
-        <v>0.51500638761602013</v>
-      </c>
-      <c r="J11" s="10"/>
+        <v>4.2233451331043623</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.60084078555202636</v>
+      </c>
+      <c r="K11" s="8"/>
       <c r="M11" t="str">
         <f t="shared" si="0"/>
         <v>26/04/2016 11:50</v>
@@ -1527,28 +1526,28 @@
       <c r="A12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D12">
         <v>5</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>42493</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>42493.548611111109</v>
       </c>
       <c r="G12">
-        <v>0.9541818700311292</v>
-      </c>
-      <c r="H12">
-        <v>0.23831766319960851</v>
-      </c>
-      <c r="J12" s="10"/>
+        <v>1.2489044110465524</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.27803727373287529</v>
+      </c>
+      <c r="K12" s="8"/>
       <c r="M12" t="str">
         <f t="shared" si="0"/>
         <v>03/05/2016 13:10</v>
@@ -1558,28 +1557,28 @@
       <c r="A13" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D13">
         <v>6</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>42500</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>42500.004166666666</v>
       </c>
       <c r="G13">
-        <v>1.7061067405721042</v>
-      </c>
-      <c r="H13">
-        <v>0.87819817707220671</v>
-      </c>
-      <c r="J13" s="10"/>
+        <v>1.9904578640007888</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1.0245645399175758</v>
+      </c>
+      <c r="K13" s="8"/>
       <c r="M13" t="str">
         <f t="shared" si="0"/>
         <v>10/05/2016 00:06</v>
@@ -1589,28 +1588,28 @@
       <c r="A14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D14">
         <v>7</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>42507</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>42507.386111111111</v>
       </c>
       <c r="G14">
-        <v>1.5003898386420318</v>
-      </c>
-      <c r="H14">
-        <v>0.26880404449783096</v>
-      </c>
-      <c r="J14" s="12"/>
+        <v>1.7504548117490371</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.31360471858080424</v>
+      </c>
+      <c r="K14" s="10"/>
       <c r="M14" t="str">
         <f t="shared" si="0"/>
         <v>17/05/2016 09:16</v>
@@ -1620,28 +1619,28 @@
       <c r="A15" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D15">
         <v>8</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>42514</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>42514.5</v>
       </c>
       <c r="G15">
-        <v>1.0147379179594411</v>
-      </c>
-      <c r="H15">
-        <v>2.4378949821215742E-2</v>
-      </c>
-      <c r="J15" s="12"/>
+        <v>1.1838609042860146</v>
+      </c>
+      <c r="H15" s="8">
+        <v>2.8442108124751592E-2</v>
+      </c>
+      <c r="K15" s="10"/>
       <c r="M15" t="str">
         <f t="shared" si="0"/>
         <v>24/05/2016 12:00</v>
@@ -1651,28 +1650,28 @@
       <c r="A16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D16">
         <v>9</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>42521</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>42521.5</v>
       </c>
       <c r="G16">
-        <v>0.85862977090762593</v>
-      </c>
-      <c r="H16">
-        <v>3.0424364481557265E-2</v>
-      </c>
-      <c r="J16" s="12"/>
+        <v>1.0017347327255637</v>
+      </c>
+      <c r="H16" s="8">
+        <v>3.549509189515012E-2</v>
+      </c>
+      <c r="K16" s="10"/>
       <c r="M16" t="str">
         <f t="shared" si="0"/>
         <v>31/05/2016 12:00</v>
@@ -1682,28 +1681,28 @@
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D17">
         <v>10</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>42528</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>42528.5</v>
       </c>
       <c r="G17">
-        <v>1.5997738816707994</v>
-      </c>
-      <c r="H17">
-        <v>6.6568250696954365E-2</v>
-      </c>
-      <c r="J17" s="10"/>
+        <v>1.8664028619492665</v>
+      </c>
+      <c r="H17" s="10">
+        <v>7.7662959146446886E-2</v>
+      </c>
+      <c r="K17" s="8"/>
       <c r="M17" t="str">
         <f t="shared" si="0"/>
         <v>07/06/2016 12:00</v>
@@ -1713,28 +1712,28 @@
       <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D18">
         <v>11</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>42535</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>42535.54583333333</v>
       </c>
       <c r="G18">
-        <v>2.0971600808769915</v>
-      </c>
-      <c r="H18">
-        <v>0.31457401213154873</v>
-      </c>
-      <c r="J18" s="13"/>
+        <v>1.3074182726683492</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0.19611274090025238</v>
+      </c>
+      <c r="K18" s="11"/>
       <c r="M18" t="str">
         <f t="shared" si="0"/>
         <v>14/06/2016 13:06</v>
@@ -1744,28 +1743,28 @@
       <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D19">
         <v>12</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>42542</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>42542.5</v>
       </c>
       <c r="G19">
-        <v>0.3790685881927528</v>
-      </c>
-      <c r="H19">
-        <v>7.6862511517530284E-3</v>
-      </c>
-      <c r="J19" s="12"/>
+        <v>0.54148832073892372</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0.83641667996214697</v>
+      </c>
+      <c r="K19" s="10"/>
       <c r="M19" t="str">
         <f t="shared" si="0"/>
         <v>21/06/2016 12:00</v>
@@ -1775,28 +1774,28 @@
       <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D20">
         <v>13</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>42549</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>42549.37222222222</v>
       </c>
       <c r="G20">
-        <v>0.25764692691783236</v>
-      </c>
-      <c r="H20">
-        <v>6.9086919828738791E-4</v>
-      </c>
-      <c r="J20" s="12"/>
+        <v>0.35792018793262326</v>
+      </c>
+      <c r="H20" s="8">
+        <v>8.0601406466863804E-4</v>
+      </c>
+      <c r="K20" s="10"/>
       <c r="M20" t="str">
         <f t="shared" si="0"/>
         <v>28/06/2016 08:56</v>
@@ -1806,28 +1805,28 @@
       <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D21">
         <v>14</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>42556</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>42555.612500000003</v>
       </c>
       <c r="G21">
-        <v>1.3336411412228617</v>
-      </c>
-      <c r="H21">
-        <v>0.20004617118342924</v>
-      </c>
-      <c r="J21" s="13"/>
+        <v>0.81630977294123108</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0.12244646594118466</v>
+      </c>
+      <c r="K21" s="11"/>
       <c r="M21" t="str">
         <f t="shared" si="0"/>
         <v>04/07/2016 14:42</v>
@@ -1837,28 +1836,28 @@
       <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D22">
         <v>15</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>42563</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>42563.041666666664</v>
       </c>
       <c r="G22">
-        <v>0.95642005888328807</v>
-      </c>
-      <c r="H22">
-        <v>0.14346300883249322</v>
-      </c>
-      <c r="J22" s="13"/>
+        <v>1.1158234020305029</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0.16737351030457542</v>
+      </c>
+      <c r="K22" s="11"/>
       <c r="M22" t="str">
         <f t="shared" si="0"/>
         <v>12/07/2016 01:00</v>
@@ -1868,28 +1867,28 @@
       <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>42465</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>42465.630555555559</v>
       </c>
       <c r="G23">
-        <v>6.5345160966768647</v>
-      </c>
-      <c r="H23">
-        <v>9.4900894256956386E-2</v>
-      </c>
-      <c r="J23" s="10"/>
+        <v>7.6236021127896771</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0.11071770996644863</v>
+      </c>
+      <c r="K23" s="8"/>
       <c r="M23" t="str">
         <f t="shared" si="0"/>
         <v>05/04/2016 15:08</v>
@@ -1899,28 +1898,28 @@
       <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>42474</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>42474.577777777777</v>
       </c>
       <c r="G24">
-        <v>4.2195143966507187</v>
-      </c>
-      <c r="H24">
-        <v>1.1729519088683031</v>
-      </c>
-      <c r="J24" s="11"/>
+        <v>4.6755389963515768</v>
+      </c>
+      <c r="H24" s="11">
+        <v>2.2692186609994556</v>
+      </c>
+      <c r="K24" s="9"/>
       <c r="M24" t="str">
         <f t="shared" si="0"/>
         <v>14/04/2016 13:52</v>
@@ -1930,28 +1929,28 @@
       <c r="A25" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>42478</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>42478.854166666664</v>
       </c>
       <c r="G25">
-        <v>4.2156270039737453</v>
-      </c>
-      <c r="H25">
-        <v>0.16016327402904107</v>
-      </c>
-      <c r="J25" s="11"/>
+        <v>4.9182315046360365</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0.18685715303388098</v>
+      </c>
+      <c r="K25" s="9"/>
       <c r="M25" t="str">
         <f t="shared" si="0"/>
         <v>18/04/2016 20:30</v>
@@ -1961,28 +1960,28 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>42486</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>42486.493055555555</v>
       </c>
       <c r="G26">
-        <v>2.2252943179529803</v>
-      </c>
-      <c r="H26">
-        <v>2.5175462249543472E-2</v>
-      </c>
-      <c r="J26" s="12"/>
+        <v>4.5991750142800543</v>
+      </c>
+      <c r="H26" s="8">
+        <v>2.9371372624467419E-2</v>
+      </c>
+      <c r="K26" s="10"/>
       <c r="M26" t="str">
         <f t="shared" si="0"/>
         <v>26/04/2016 11:50</v>
@@ -1992,28 +1991,28 @@
       <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>42493</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>42493.548611111109</v>
       </c>
       <c r="G27">
-        <v>2.76408391035792</v>
-      </c>
-      <c r="H27">
-        <v>2.3281068874223116E-2</v>
-      </c>
-      <c r="J27" s="10"/>
+        <v>3.2247645620842404</v>
+      </c>
+      <c r="H27" s="9">
+        <v>2.7161247019927046E-2</v>
+      </c>
+      <c r="K27" s="8"/>
       <c r="M27" t="str">
         <f t="shared" si="0"/>
         <v>03/05/2016 13:10</v>
@@ -2023,28 +2022,28 @@
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D28">
         <v>6</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>42500</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>42500.004166666666</v>
       </c>
       <c r="G28">
-        <v>2.1038123097257184</v>
-      </c>
-      <c r="H28">
-        <v>5.0946906916070137E-2</v>
-      </c>
-      <c r="J28" s="10"/>
+        <v>2.4544476946800047</v>
+      </c>
+      <c r="H28" s="9">
+        <v>5.9438058068748578E-2</v>
+      </c>
+      <c r="K28" s="8"/>
       <c r="M28" t="str">
         <f t="shared" si="0"/>
         <v>10/05/2016 00:06</v>
@@ -2054,28 +2053,28 @@
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D29">
         <v>7</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>42507</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>42507.386111111111</v>
       </c>
       <c r="G29">
-        <v>1.5254541300039282</v>
-      </c>
-      <c r="H29">
-        <v>3.4715700936551755E-2</v>
-      </c>
-      <c r="J29" s="10"/>
+        <v>1.7796972726361173</v>
+      </c>
+      <c r="H29" s="10">
+        <v>4.0502218455045591E-2</v>
+      </c>
+      <c r="K29" s="8"/>
       <c r="M29" t="str">
         <f t="shared" si="0"/>
         <v>17/05/2016 09:16</v>
@@ -2085,28 +2084,28 @@
       <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="B30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D30">
         <v>8</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>42514</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>42514.5</v>
       </c>
       <c r="G30">
-        <v>1.0676245984997217</v>
-      </c>
-      <c r="H30">
-        <v>3.7581092050989306E-2</v>
-      </c>
-      <c r="J30" s="10"/>
+        <v>1.2455620315830087</v>
+      </c>
+      <c r="H30" s="8">
+        <v>4.3844607392821006E-2</v>
+      </c>
+      <c r="K30" s="8"/>
       <c r="M30" t="str">
         <f t="shared" si="0"/>
         <v>24/05/2016 12:00</v>
@@ -2116,28 +2115,28 @@
       <c r="A31" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="B31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D31">
         <v>9</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>42521</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>42521.5</v>
       </c>
       <c r="G31">
-        <v>1.0374518177054053</v>
-      </c>
-      <c r="H31">
-        <v>1.5792484477241898E-2</v>
-      </c>
-      <c r="J31" s="12"/>
+        <v>1.2103604539896395</v>
+      </c>
+      <c r="H31" s="8">
+        <v>1.8424565223449037E-2</v>
+      </c>
+      <c r="K31" s="10"/>
       <c r="M31" t="str">
         <f t="shared" si="0"/>
         <v>31/05/2016 12:00</v>
@@ -2147,28 +2146,28 @@
       <c r="A32" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="B32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D32">
         <v>10</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>42528</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <v>42528.5</v>
       </c>
       <c r="G32">
-        <v>1.851077179543845</v>
-      </c>
-      <c r="H32">
-        <v>8.9051653002847793E-3</v>
-      </c>
-      <c r="J32" s="12"/>
+        <v>2.3638939805320018</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0.92709443525055746</v>
+      </c>
+      <c r="K32" s="10"/>
       <c r="M32" t="str">
         <f t="shared" si="0"/>
         <v>07/06/2016 12:00</v>
@@ -2178,28 +2177,28 @@
       <c r="A33" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D33">
         <v>11</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>42535</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <v>42535.54583333333</v>
       </c>
       <c r="G33">
-        <v>0.45443580536745559</v>
-      </c>
-      <c r="H33">
-        <v>1.8175206326333675E-2</v>
-      </c>
-      <c r="J33" s="12"/>
+        <v>0.86456263656560928</v>
+      </c>
+      <c r="H33" s="8">
+        <v>0.77852410425825957</v>
+      </c>
+      <c r="K33" s="10"/>
       <c r="M33" t="str">
         <f t="shared" si="0"/>
         <v>14/06/2016 13:06</v>
@@ -2209,28 +2208,28 @@
       <c r="A34" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D34">
         <v>12</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>42542</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <v>42542.5</v>
       </c>
       <c r="G34">
-        <v>0.7739230294042081</v>
-      </c>
-      <c r="H34">
-        <v>1.8016991392777255E-2</v>
-      </c>
-      <c r="J34" s="12"/>
+        <v>1.4929139685146851</v>
+      </c>
+      <c r="H34" s="10">
+        <v>1.3625229399110386</v>
+      </c>
+      <c r="K34" s="10"/>
       <c r="M34" t="str">
         <f t="shared" si="0"/>
         <v>21/06/2016 12:00</v>
@@ -2240,28 +2239,28 @@
       <c r="A35" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="B35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D35">
         <v>13</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>42549</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <v>42549.37222222222</v>
       </c>
       <c r="G35">
-        <v>1.1937055417154974</v>
-      </c>
-      <c r="H35">
-        <v>0.1790558312573246</v>
-      </c>
-      <c r="J35" s="13"/>
+        <v>1.3926564653347471</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0.20889846980021207</v>
+      </c>
+      <c r="K35" s="11"/>
       <c r="M35" t="str">
         <f t="shared" si="0"/>
         <v>28/06/2016 08:56</v>
@@ -2271,28 +2270,28 @@
       <c r="A36" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="B36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D36">
         <v>14</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="7">
         <v>42556</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="7">
         <v>42555.612500000003</v>
       </c>
       <c r="G36">
-        <v>1.0220274541954517</v>
-      </c>
-      <c r="H36">
-        <v>0.15330411812931774</v>
-      </c>
-      <c r="J36" s="13"/>
+        <v>1.1923653632280271</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0.17885480448420407</v>
+      </c>
+      <c r="K36" s="11"/>
       <c r="M36" t="str">
         <f t="shared" si="0"/>
         <v>04/07/2016 14:42</v>
@@ -2302,28 +2301,28 @@
       <c r="A37" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="B37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D37">
         <v>15</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>42563</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <v>42563.041666666664</v>
       </c>
       <c r="G37">
-        <v>1.1610021513926232</v>
-      </c>
-      <c r="H37">
-        <v>0.17415032270889347</v>
-      </c>
-      <c r="J37" s="13"/>
+        <v>1.3545025099580608</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0.20317537649370912</v>
+      </c>
+      <c r="K37" s="11"/>
       <c r="M37" t="str">
         <f t="shared" si="0"/>
         <v>12/07/2016 01:00</v>
@@ -2333,28 +2332,28 @@
       <c r="A38" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>42465</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <v>42465.630555555559</v>
       </c>
       <c r="G38">
-        <v>1.4632720947001103</v>
-      </c>
-      <c r="H38">
-        <v>3.3148027184235367E-2</v>
-      </c>
-      <c r="J38" s="10"/>
+        <v>1.7071507771501291</v>
+      </c>
+      <c r="H38" s="11">
+        <v>3.8672698381608001E-2</v>
+      </c>
+      <c r="K38" s="8"/>
       <c r="M38" t="str">
         <f t="shared" si="0"/>
         <v>05/04/2016 15:08</v>
@@ -2364,28 +2363,28 @@
       <c r="A39" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="6" t="s">
+      <c r="B39" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>42474</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <v>42474.577777777777</v>
       </c>
       <c r="G39">
-        <v>3.0154551034462935</v>
-      </c>
-      <c r="H39">
-        <v>5.6964185368284598E-2</v>
-      </c>
-      <c r="J39" s="11"/>
+        <v>3.5180309540206767</v>
+      </c>
+      <c r="H39" s="11">
+        <v>6.6458216262998693E-2</v>
+      </c>
+      <c r="K39" s="9"/>
       <c r="M39" t="str">
         <f t="shared" si="0"/>
         <v>14/04/2016 13:52</v>
@@ -2395,28 +2394,28 @@
       <c r="A40" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="6" t="s">
+      <c r="B40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>42478</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <v>42478.854166666664</v>
       </c>
       <c r="G40">
-        <v>5.323943431661009</v>
-      </c>
-      <c r="H40">
-        <v>1.6682090952371866</v>
-      </c>
-      <c r="J40" s="11"/>
+        <v>5.0938948913837718</v>
+      </c>
+      <c r="H40" s="11">
+        <v>1.9462439444433886</v>
+      </c>
+      <c r="K40" s="9"/>
       <c r="M40" t="str">
         <f t="shared" si="0"/>
         <v>18/04/2016 20:30</v>
@@ -2426,28 +2425,28 @@
       <c r="A41" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="B41" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D41">
         <v>4</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <v>42486</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="3">
         <v>42486.493055555555</v>
       </c>
       <c r="G41">
-        <v>4.0263597252140206</v>
-      </c>
-      <c r="H41">
-        <v>0.18382775838014603</v>
-      </c>
-      <c r="J41" s="10"/>
+        <v>4.6974196794163579</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0.21446571811017029</v>
+      </c>
+      <c r="K41" s="8"/>
       <c r="M41" t="str">
         <f t="shared" si="0"/>
         <v>26/04/2016 11:50</v>
@@ -2457,28 +2456,28 @@
       <c r="A42" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="B42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D42">
         <v>5</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3">
         <v>42493</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="3">
         <v>42493.548611111109</v>
       </c>
       <c r="G42">
-        <v>1.6651244634779927</v>
-      </c>
-      <c r="H42">
-        <v>0.31521511629310506</v>
-      </c>
-      <c r="J42" s="10"/>
+        <v>1.9426452073909919</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0.36775096900862275</v>
+      </c>
+      <c r="K42" s="8"/>
       <c r="M42" t="str">
         <f t="shared" si="0"/>
         <v>03/05/2016 13:10</v>
@@ -2488,28 +2487,28 @@
       <c r="A43" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="B43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D43">
         <v>6</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="3">
         <v>42500</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="3">
         <v>42500.004166666666</v>
       </c>
       <c r="G43">
-        <v>1.8243919123532297</v>
-      </c>
-      <c r="H43">
-        <v>7.954793593860944E-2</v>
-      </c>
-      <c r="J43" s="10"/>
+        <v>2.1284572310787686</v>
+      </c>
+      <c r="H43" s="9">
+        <v>9.2805925261710692E-2</v>
+      </c>
+      <c r="K43" s="8"/>
       <c r="M43" t="str">
         <f t="shared" si="0"/>
         <v>10/05/2016 00:06</v>
@@ -2519,28 +2518,28 @@
       <c r="A44" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="6" t="s">
+      <c r="B44" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D44">
         <v>7</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <v>42507</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="3">
         <v>42507.386111111111</v>
       </c>
       <c r="G44">
-        <v>1.6475781580315261</v>
-      </c>
-      <c r="H44">
-        <v>0.13668880366306371</v>
-      </c>
-      <c r="J44" s="12"/>
+        <v>0.79491525827572795</v>
+      </c>
+      <c r="H44" s="8">
+        <v>0.15947027094024119</v>
+      </c>
+      <c r="K44" s="10"/>
       <c r="M44" t="str">
         <f t="shared" si="0"/>
         <v>17/05/2016 09:16</v>
@@ -2550,28 +2549,28 @@
       <c r="A45" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="6" t="s">
+      <c r="B45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D45">
         <v>8</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <v>42514</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="3">
         <v>42514.5</v>
       </c>
       <c r="G45">
-        <v>1.4996042410770574</v>
-      </c>
-      <c r="H45">
-        <v>0.92089366013670393</v>
-      </c>
-      <c r="J45" s="12"/>
+        <v>0.7261801707049963</v>
+      </c>
+      <c r="H45" s="8">
+        <v>4.886719888861786E-2</v>
+      </c>
+      <c r="K45" s="10"/>
       <c r="M45" t="str">
         <f t="shared" si="0"/>
         <v>24/05/2016 12:00</v>
@@ -2581,28 +2580,28 @@
       <c r="A46" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="6" t="s">
+      <c r="B46" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D46">
         <v>9</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="3">
         <v>42521</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="3">
         <v>42521.5</v>
       </c>
       <c r="G46">
-        <v>2.3590750200722357</v>
-      </c>
-      <c r="H46">
-        <v>0.65384240384155223</v>
-      </c>
-      <c r="J46" s="12"/>
+        <v>2.2314962964842344</v>
+      </c>
+      <c r="H46" s="8">
+        <v>6.7245650604000923E-2</v>
+      </c>
+      <c r="K46" s="10"/>
       <c r="M46" t="str">
         <f t="shared" si="0"/>
         <v>31/05/2016 12:00</v>
@@ -2612,28 +2611,28 @@
       <c r="A47" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="6" t="s">
+      <c r="B47" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D47">
         <v>10</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <v>42528</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="3">
         <v>42528.5</v>
       </c>
       <c r="G47">
-        <v>2.797507226869163</v>
-      </c>
-      <c r="H47">
-        <v>1.2398400824123912</v>
-      </c>
-      <c r="J47" s="10"/>
+        <v>2.5894129530466214</v>
+      </c>
+      <c r="H47" s="10">
+        <v>1.4464800961477888</v>
+      </c>
+      <c r="K47" s="8"/>
       <c r="M47" t="str">
         <f t="shared" si="0"/>
         <v>07/06/2016 12:00</v>
@@ -2643,28 +2642,28 @@
       <c r="A48" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="6" t="s">
+      <c r="B48" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D48">
         <v>11</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <v>42535</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="3">
         <v>42535.54583333333</v>
       </c>
       <c r="G48">
-        <v>2.4961286762469523</v>
-      </c>
-      <c r="H48">
-        <v>1.4839379268362554E-2</v>
-      </c>
-      <c r="J48" s="12"/>
+        <v>2.9121501222881117</v>
+      </c>
+      <c r="H48" s="10">
+        <v>1.731260914642303E-2</v>
+      </c>
+      <c r="K48" s="10"/>
       <c r="M48" t="str">
         <f t="shared" si="0"/>
         <v>14/06/2016 13:06</v>
@@ -2674,28 +2673,28 @@
       <c r="A49" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="6" t="s">
+      <c r="B49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D49">
         <v>12</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <v>42542</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="3">
         <v>42542.5</v>
       </c>
       <c r="G49">
-        <v>2.7372475095066355</v>
-      </c>
-      <c r="H49">
-        <v>0.41058712642599532</v>
-      </c>
-      <c r="J49" s="13"/>
+        <v>3.1934554277577418</v>
+      </c>
+      <c r="H49" s="10">
+        <v>0.47901831416366125</v>
+      </c>
+      <c r="K49" s="11"/>
       <c r="M49" t="str">
         <f t="shared" si="0"/>
         <v>21/06/2016 12:00</v>
@@ -2705,28 +2704,28 @@
       <c r="A50" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="6" t="s">
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D50">
         <v>13</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <v>42549</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="3">
         <v>42549.37222222222</v>
       </c>
       <c r="G50">
-        <v>2.3693944756009291</v>
-      </c>
-      <c r="H50">
-        <v>0.35540917134013933</v>
-      </c>
-      <c r="J50" s="12"/>
+        <v>2.5605934588249193</v>
+      </c>
+      <c r="H50" s="8">
+        <v>0.38408901882373786</v>
+      </c>
+      <c r="K50" s="10"/>
       <c r="M50" t="str">
         <f t="shared" si="0"/>
         <v>28/06/2016 08:56</v>
@@ -2736,28 +2735,28 @@
       <c r="A51" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="6" t="s">
+      <c r="B51" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D51">
         <v>14</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="7">
         <v>42556</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="7">
         <v>42555.612500000003</v>
       </c>
       <c r="G51">
-        <v>1.5868495293533809</v>
-      </c>
-      <c r="H51">
-        <v>0.23802742940300711</v>
-      </c>
-      <c r="J51" s="13"/>
+        <v>1.8513244509122779</v>
+      </c>
+      <c r="H51" s="10">
+        <v>0.2776986676368417</v>
+      </c>
+      <c r="K51" s="11"/>
       <c r="M51" t="str">
         <f t="shared" si="0"/>
         <v>04/07/2016 14:42</v>
@@ -2767,28 +2766,28 @@
       <c r="A52" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="6" t="s">
+      <c r="B52" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D52">
         <v>15</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <v>42563</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="3">
         <v>42563.041666666664</v>
       </c>
       <c r="G52">
-        <v>1.311905359014532</v>
-      </c>
-      <c r="H52">
-        <v>0.19678580385217978</v>
-      </c>
-      <c r="J52" s="13"/>
+        <v>1.5305562521836207</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0.22958343782754309</v>
+      </c>
+      <c r="K52" s="11"/>
       <c r="M52" t="str">
         <f t="shared" si="0"/>
         <v>12/07/2016 01:00</v>
@@ -2823,14 +2822,14 @@
       <c r="A2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="5" t="str">
+      <c r="B2" s="4" t="str">
         <f>[1]Analyses!A6</f>
         <v>AO-W0-1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>42459</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <f>[1]Analyses!C6</f>
         <v>42459</v>
       </c>
@@ -2839,12 +2838,12 @@
       <c r="A3" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <f>[1]Analyses!A7</f>
         <v>AO-W1-1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
         <f>[1]Analyses!C7</f>
         <v>42465</v>
       </c>
@@ -2853,14 +2852,14 @@
       <c r="A4" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="4" t="str">
         <f>[1]Analyses!A8</f>
         <v>AO-W1-2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>42465</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <f>[1]Analyses!C8</f>
         <v>42465</v>
       </c>
@@ -2869,12 +2868,12 @@
       <c r="A5" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="5" t="str">
+      <c r="B5" s="4" t="str">
         <f>[1]Analyses!A9</f>
         <v>AO-W2-1</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
         <f>[1]Analyses!C9</f>
         <v>42472</v>
       </c>
@@ -2883,14 +2882,14 @@
       <c r="A6" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="5" t="str">
+      <c r="B6" s="4" t="str">
         <f>[1]Analyses!A10</f>
         <v>AO-W2-2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>42472</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f>[1]Analyses!C10</f>
         <v>42472</v>
       </c>
@@ -2899,12 +2898,12 @@
       <c r="A7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="5" t="str">
+      <c r="B7" s="4" t="str">
         <f>[1]Analyses!A11</f>
         <v>AO-W3-1</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
         <f>[1]Analyses!C11</f>
         <v>42478</v>
       </c>
@@ -2913,14 +2912,14 @@
       <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="5" t="str">
+      <c r="B8" s="4" t="str">
         <f>[1]Analyses!A12</f>
         <v>AO-W3-2</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>42478</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>[1]Analyses!C12</f>
         <v>42478</v>
       </c>
@@ -2929,14 +2928,14 @@
       <c r="A9" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="5" t="str">
+      <c r="B9" s="4" t="str">
         <f>[1]Analyses!A13</f>
         <v>AO-W3-3</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>42481</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f>[1]Analyses!C13</f>
         <v>42481</v>
       </c>
@@ -2945,14 +2944,14 @@
       <c r="A10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="5" t="str">
+      <c r="B10" s="4" t="str">
         <f>[1]Analyses!A14</f>
         <v>AO-W4-1</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>42486</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f>[1]Analyses!C14</f>
         <v>42486</v>
       </c>
@@ -2961,12 +2960,12 @@
       <c r="A11" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="5" t="str">
+      <c r="B11" s="4" t="str">
         <f>[1]Analyses!A15</f>
         <v>AO-W5-1</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
         <f>[1]Analyses!C15</f>
         <v>42493</v>
       </c>
@@ -2975,14 +2974,14 @@
       <c r="A12" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="5" t="str">
+      <c r="B12" s="4" t="str">
         <f>[1]Analyses!A16</f>
         <v>AO-W5-2</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>42493</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <f>[1]Analyses!C16</f>
         <v>42493</v>
       </c>
@@ -2991,14 +2990,14 @@
       <c r="A13" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="5" t="str">
+      <c r="B13" s="4" t="str">
         <f>[1]Analyses!A17</f>
         <v>AO-W6-1</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>42500</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <f>[1]Analyses!C17</f>
         <v>42500</v>
       </c>
@@ -3007,12 +3006,12 @@
       <c r="A14" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="5" t="str">
+      <c r="B14" s="4" t="str">
         <f>[1]Analyses!A18</f>
         <v>AO-W6-2</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
         <f>[1]Analyses!C18</f>
         <v>42503</v>
       </c>
@@ -3021,12 +3020,12 @@
       <c r="A15" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="5" t="str">
+      <c r="B15" s="4" t="str">
         <f>[1]Analyses!A19</f>
         <v>AO-W6-3</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
         <f>[1]Analyses!C19</f>
         <v>42503</v>
       </c>
@@ -3035,14 +3034,14 @@
       <c r="A16" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="5" t="str">
+      <c r="B16" s="4" t="str">
         <f>[1]Analyses!A20</f>
         <v>AO-W6-4</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>42503</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <f>[1]Analyses!C20</f>
         <v>42503</v>
       </c>
@@ -3051,14 +3050,14 @@
       <c r="A17" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="5" t="str">
+      <c r="B17" s="4" t="str">
         <f>[1]Analyses!A21</f>
         <v>AO-W7-1</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>42507</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <f>[1]Analyses!C21</f>
         <v>42507</v>
       </c>
@@ -3067,14 +3066,14 @@
       <c r="A18" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="5" t="str">
+      <c r="B18" s="4" t="str">
         <f>[1]Analyses!A23</f>
         <v>AO-W8-1</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>42514</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <f>[1]Analyses!C23</f>
         <v>42514</v>
       </c>
@@ -3083,12 +3082,12 @@
       <c r="A19" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="5" t="str">
+      <c r="B19" s="4" t="str">
         <f>[1]Analyses!A24</f>
         <v>AO-W9-1</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3">
         <f>[1]Analyses!C24</f>
         <v>42521</v>
       </c>
@@ -3097,12 +3096,12 @@
       <c r="A20" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="5" t="str">
+      <c r="B20" s="4" t="str">
         <f>[1]Analyses!A25</f>
         <v>AO-W9-2</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3">
         <f>[1]Analyses!C25</f>
         <v>42521</v>
       </c>
@@ -3111,12 +3110,12 @@
       <c r="A21" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="5" t="str">
+      <c r="B21" s="4" t="str">
         <f>[1]Analyses!A26</f>
         <v>AO-W9-3</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3">
         <f>[1]Analyses!C26</f>
         <v>42521</v>
       </c>
@@ -3125,14 +3124,14 @@
       <c r="A22" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="5" t="str">
+      <c r="B22" s="4" t="str">
         <f>[1]Analyses!A27</f>
         <v>AO-W9-4</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>42521</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <f>[1]Analyses!C27</f>
         <v>42521</v>
       </c>
@@ -3141,12 +3140,12 @@
       <c r="A23" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="5" t="str">
+      <c r="B23" s="4" t="str">
         <f>[1]Analyses!A28</f>
         <v>AO-W10-1</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
         <f>[1]Analyses!C28</f>
         <v>42528</v>
       </c>
@@ -3155,12 +3154,12 @@
       <c r="A24" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="5" t="str">
+      <c r="B24" s="4" t="str">
         <f>[1]Analyses!A29</f>
         <v>AO-W10-2</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3">
         <f>[1]Analyses!C29</f>
         <v>42528</v>
       </c>
@@ -3169,12 +3168,12 @@
       <c r="A25" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="5" t="str">
+      <c r="B25" s="4" t="str">
         <f>[1]Analyses!A30</f>
         <v>AO-W10-3</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
         <f>[1]Analyses!C30</f>
         <v>42528</v>
       </c>
@@ -3183,12 +3182,12 @@
       <c r="A26" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="5" t="str">
+      <c r="B26" s="4" t="str">
         <f>[1]Analyses!A31</f>
         <v>AO-W10-4</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3">
         <f>[1]Analyses!C31</f>
         <v>42528</v>
       </c>
@@ -3197,14 +3196,14 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="5" t="str">
+      <c r="B27" s="4" t="str">
         <f>[1]Analyses!A32</f>
         <v>AO-W10-5</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>42528</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <f>[1]Analyses!C32</f>
         <v>42528</v>
       </c>
@@ -3213,12 +3212,12 @@
       <c r="A28" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="5" t="str">
+      <c r="B28" s="4" t="str">
         <f>[1]Analyses!A33</f>
         <v>AO-W11-1</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3">
         <f>[1]Analyses!C33</f>
         <v>42535</v>
       </c>
@@ -3227,12 +3226,12 @@
       <c r="A29" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="5" t="str">
+      <c r="B29" s="4" t="str">
         <f>[1]Analyses!A34</f>
         <v>AO-W11-2</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3">
         <f>[1]Analyses!C34</f>
         <v>42535</v>
       </c>
@@ -3241,14 +3240,14 @@
       <c r="A30" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="5" t="str">
+      <c r="B30" s="4" t="str">
         <f>[1]Analyses!A35</f>
         <v>AO-W11-3</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>42535</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <f>[1]Analyses!C35</f>
         <v>42535</v>
       </c>
@@ -3257,12 +3256,12 @@
       <c r="A31" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="5" t="str">
+      <c r="B31" s="4" t="str">
         <f>[1]Analyses!A36</f>
         <v>AO-W12-1</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3">
         <f>[1]Analyses!C36</f>
         <v>42542</v>
       </c>
@@ -3271,12 +3270,12 @@
       <c r="A32" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="5" t="str">
+      <c r="B32" s="4" t="str">
         <f>[1]Analyses!A37</f>
         <v>AO-W12-2</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3">
         <f>[1]Analyses!C37</f>
         <v>42542</v>
       </c>
@@ -3285,12 +3284,12 @@
       <c r="A33" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="5" t="str">
+      <c r="B33" s="4" t="str">
         <f>[1]Analyses!A38</f>
         <v>AO-W12-3</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3">
         <f>[1]Analyses!C38</f>
         <v>42542</v>
       </c>
@@ -3299,14 +3298,14 @@
       <c r="A34" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="5" t="str">
+      <c r="B34" s="4" t="str">
         <f>[1]Analyses!A39</f>
         <v>AO-W12-4</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>42542</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <f>[1]Analyses!C39</f>
         <v>42542</v>
       </c>
@@ -3315,12 +3314,12 @@
       <c r="A35" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="5" t="str">
+      <c r="B35" s="4" t="str">
         <f>[1]Analyses!A40</f>
         <v>AO-W13-1</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3">
         <f>[1]Analyses!C40</f>
         <v>42549</v>
       </c>
@@ -3329,12 +3328,12 @@
       <c r="A36" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="5" t="str">
+      <c r="B36" s="4" t="str">
         <f>[1]Analyses!A41</f>
         <v>AO-W13-2</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3">
         <f>[1]Analyses!C41</f>
         <v>42549</v>
       </c>
@@ -3343,14 +3342,14 @@
       <c r="A37" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="5" t="str">
+      <c r="B37" s="4" t="str">
         <f>[1]Analyses!A42</f>
         <v>AO-W13-3</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>42549</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <f>[1]Analyses!C42</f>
         <v>42549</v>
       </c>
@@ -3359,14 +3358,14 @@
       <c r="A38" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="5" t="str">
+      <c r="B38" s="4" t="str">
         <f>[1]Analyses!A43</f>
         <v>AO-W14-1</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>42556</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <f>[1]Analyses!C43</f>
         <v>42556</v>
       </c>
@@ -3375,14 +3374,14 @@
       <c r="A39" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="5" t="str">
+      <c r="B39" s="4" t="str">
         <f>[1]Analyses!A44</f>
         <v>AO-W15-1</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>42563</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <f>[1]Analyses!C44</f>
         <v>42563</v>
       </c>
@@ -3391,14 +3390,14 @@
       <c r="A40" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="5" t="str">
+      <c r="B40" s="4" t="str">
         <f>[1]Analyses!A45</f>
         <v>AO-W16-1</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>42621</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <f>[1]Analyses!C45</f>
         <v>42621</v>
       </c>
@@ -3407,12 +3406,12 @@
       <c r="A41" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="5" t="str">
+      <c r="B41" s="4" t="str">
         <f>[1]Analyses!A46</f>
         <v>AO-W16-2</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3">
         <f>[1]Analyses!C46</f>
         <v>42621</v>
       </c>
@@ -3421,12 +3420,12 @@
       <c r="A42" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="5" t="str">
+      <c r="B42" s="4" t="str">
         <f>[1]Analyses!A47</f>
         <v>AO-W16-3</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3">
         <f>[1]Analyses!C47</f>
         <v>42621</v>
       </c>
@@ -3435,14 +3434,14 @@
       <c r="A43" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="5" t="str">
+      <c r="B43" s="4" t="str">
         <f>[1]Analyses!A48</f>
         <v>AO_W17_1</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>42656</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <f>[1]Analyses!C48</f>
         <v>42656</v>
       </c>
@@ -3451,12 +3450,12 @@
       <c r="A44" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="5" t="str">
+      <c r="B44" s="4" t="str">
         <f>[1]Analyses!A49</f>
         <v>AO_W17_2</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3">
         <f>[1]Analyses!C49</f>
         <v>42656</v>
       </c>
@@ -3465,12 +3464,12 @@
       <c r="A45" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="5" t="str">
+      <c r="B45" s="4" t="str">
         <f>[1]Analyses!A50</f>
         <v>AO_W17_2B</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3">
         <f>[1]Analyses!C50</f>
         <v>42656</v>
       </c>

--- a/Data/Lab-linked/SoilCompConc_W1toW15_Smet.xlsx
+++ b/Data/Lab-linked/SoilCompConc_W1toW15_Smet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="129">
   <si>
     <t>Filename</t>
   </si>
@@ -362,6 +362,57 @@
   <si>
     <t>French (PC labo) 
 =TEXTE(CELL.ID, "JJ/MM/AAAA HH:MM")</t>
+  </si>
+  <si>
+    <t>25/03/2016 00:04</t>
+  </si>
+  <si>
+    <t>30/03/2016 12:18</t>
+  </si>
+  <si>
+    <t>05/04/2016 15:08</t>
+  </si>
+  <si>
+    <t>14/04/2016 13:52</t>
+  </si>
+  <si>
+    <t>18/04/2016 20:30</t>
+  </si>
+  <si>
+    <t>26/04/2016 11:50</t>
+  </si>
+  <si>
+    <t>03/05/2016 13:10</t>
+  </si>
+  <si>
+    <t>10/05/2016 00:06</t>
+  </si>
+  <si>
+    <t>17/05/2016 09:16</t>
+  </si>
+  <si>
+    <t>24/05/2016 12:00</t>
+  </si>
+  <si>
+    <t>31/05/2016 12:00</t>
+  </si>
+  <si>
+    <t>07/06/2016 12:00</t>
+  </si>
+  <si>
+    <t>14/06/2016 13:06</t>
+  </si>
+  <si>
+    <t>21/06/2016 12:00</t>
+  </si>
+  <si>
+    <t>28/06/2016 08:56</t>
+  </si>
+  <si>
+    <t>04/07/2016 14:42</t>
+  </si>
+  <si>
+    <t>12/07/2016 01:00</t>
   </si>
 </sst>
 </file>
@@ -479,7 +530,18 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1151,7 +1213,7 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H52"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,8 +1277,8 @@
       <c r="E2" s="3">
         <v>42459</v>
       </c>
-      <c r="F2" s="3">
-        <v>42454.00277777778</v>
+      <c r="F2" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="G2">
         <v>6.8592973637268254E-2</v>
@@ -1249,8 +1311,8 @@
       <c r="E3" s="3">
         <v>42459</v>
       </c>
-      <c r="F3" s="3">
-        <v>42454.00277777778</v>
+      <c r="F3" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="G3">
         <v>4.3806464368575868E-2</v>
@@ -1283,8 +1345,8 @@
       <c r="E4" s="3">
         <v>42459</v>
       </c>
-      <c r="F4" s="3">
-        <v>42454.00277777778</v>
+      <c r="F4" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="G4">
         <v>7.6020978797797734E-2</v>
@@ -1317,8 +1379,8 @@
       <c r="E5" s="3">
         <v>42459</v>
       </c>
-      <c r="F5" s="3">
-        <v>42459.512499999997</v>
+      <c r="F5" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="G5">
         <v>1.0375584848053914</v>
@@ -1352,8 +1414,8 @@
       <c r="E6" s="3">
         <v>42459</v>
       </c>
-      <c r="F6" s="3">
-        <v>42459.512499999997</v>
+      <c r="F6" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="G6">
         <v>0.93422933483922665</v>
@@ -1383,8 +1445,8 @@
       <c r="E7" s="3">
         <v>42459</v>
       </c>
-      <c r="F7" s="3">
-        <v>42459.512499999997</v>
+      <c r="F7" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="G7">
         <v>3.7379776114075445</v>
@@ -1414,13 +1476,13 @@
       <c r="E8" s="3">
         <v>42465</v>
       </c>
-      <c r="F8" s="3">
-        <v>42465.630555555559</v>
+      <c r="F8" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="G8">
         <v>1.8544809870364711</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8">
         <v>0.17648320429276748</v>
       </c>
       <c r="K8" s="8"/>
@@ -1445,13 +1507,13 @@
       <c r="E9" s="3">
         <v>42474</v>
       </c>
-      <c r="F9" s="3">
-        <v>42474.577777777777</v>
+      <c r="F9" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="G9">
         <v>5.6285149521329148</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9">
         <v>5.8313366457463101E-2</v>
       </c>
       <c r="K9" s="9"/>
@@ -1476,14 +1538,14 @@
       <c r="E10" s="3">
         <v>42478</v>
       </c>
-      <c r="F10" s="3">
-        <v>42478.854166666664</v>
+      <c r="F10" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="G10">
-        <v>5.2199039041934467</v>
-      </c>
-      <c r="H10" s="8">
-        <v>2.1533599555196212</v>
+        <v>7.1836621478249993</v>
+      </c>
+      <c r="H10">
+        <v>0.15279601696106929</v>
       </c>
       <c r="K10" s="9"/>
       <c r="M10" t="str">
@@ -1507,13 +1569,13 @@
       <c r="E11" s="3">
         <v>42486</v>
       </c>
-      <c r="F11" s="3">
-        <v>42486.493055555555</v>
+      <c r="F11" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="G11">
         <v>4.2233451331043623</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11">
         <v>0.60084078555202636</v>
       </c>
       <c r="K11" s="8"/>
@@ -1538,13 +1600,13 @@
       <c r="E12" s="3">
         <v>42493</v>
       </c>
-      <c r="F12" s="3">
-        <v>42493.548611111109</v>
+      <c r="F12" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="G12">
         <v>1.2489044110465524</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12">
         <v>0.27803727373287529</v>
       </c>
       <c r="K12" s="8"/>
@@ -1569,14 +1631,14 @@
       <c r="E13" s="3">
         <v>42500</v>
       </c>
-      <c r="F13" s="3">
-        <v>42500.004166666666</v>
+      <c r="F13" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="G13">
-        <v>1.9904578640007888</v>
-      </c>
-      <c r="H13" s="9">
-        <v>1.0245645399175758</v>
+        <v>1.2853255238218517</v>
+      </c>
+      <c r="H13">
+        <v>1.9135924633912567E-2</v>
       </c>
       <c r="K13" s="8"/>
       <c r="M13" t="str">
@@ -1600,13 +1662,13 @@
       <c r="E14" s="3">
         <v>42507</v>
       </c>
-      <c r="F14" s="3">
-        <v>42507.386111111111</v>
+      <c r="F14" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="G14">
         <v>1.7504548117490371</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14">
         <v>0.31360471858080424</v>
       </c>
       <c r="K14" s="10"/>
@@ -1631,13 +1693,13 @@
       <c r="E15" s="3">
         <v>42514</v>
       </c>
-      <c r="F15" s="3">
-        <v>42514.5</v>
+      <c r="F15" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="G15">
         <v>1.1838609042860146</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15">
         <v>2.8442108124751592E-2</v>
       </c>
       <c r="K15" s="10"/>
@@ -1662,13 +1724,13 @@
       <c r="E16" s="3">
         <v>42521</v>
       </c>
-      <c r="F16" s="3">
-        <v>42521.5</v>
+      <c r="F16" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="G16">
         <v>1.0017347327255637</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16">
         <v>3.549509189515012E-2</v>
       </c>
       <c r="K16" s="10"/>
@@ -1693,13 +1755,13 @@
       <c r="E17" s="3">
         <v>42528</v>
       </c>
-      <c r="F17" s="3">
-        <v>42528.5</v>
+      <c r="F17" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="G17">
         <v>1.8664028619492665</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17">
         <v>7.7662959146446886E-2</v>
       </c>
       <c r="K17" s="8"/>
@@ -1724,14 +1786,14 @@
       <c r="E18" s="3">
         <v>42535</v>
       </c>
-      <c r="F18" s="3">
-        <v>42535.54583333333</v>
+      <c r="F18" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="G18">
-        <v>1.3074182726683492</v>
-      </c>
-      <c r="H18" s="10">
-        <v>0.19611274090025238</v>
+        <v>1.3000524368110224</v>
+      </c>
+      <c r="H18">
+        <v>0.10176181761407965</v>
       </c>
       <c r="K18" s="11"/>
       <c r="M18" t="str">
@@ -1755,14 +1817,14 @@
       <c r="E19" s="3">
         <v>42542</v>
       </c>
-      <c r="F19" s="3">
-        <v>42542.5</v>
+      <c r="F19" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="G19">
-        <v>0.54148832073892372</v>
-      </c>
-      <c r="H19" s="10">
-        <v>0.83641667996214697</v>
+        <v>0.53926714315228086</v>
+      </c>
+      <c r="H19">
+        <v>0.62629297789808969</v>
       </c>
       <c r="K19" s="10"/>
       <c r="M19" t="str">
@@ -1786,14 +1848,14 @@
       <c r="E20" s="3">
         <v>42549</v>
       </c>
-      <c r="F20" s="3">
-        <v>42549.37222222222</v>
+      <c r="F20" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="G20">
-        <v>0.35792018793262326</v>
-      </c>
-      <c r="H20" s="8">
-        <v>8.0601406466863804E-4</v>
+        <v>0.35651763774009076</v>
+      </c>
+      <c r="H20">
+        <v>0.1118610485983738</v>
       </c>
       <c r="K20" s="10"/>
       <c r="M20" t="str">
@@ -1817,14 +1879,14 @@
       <c r="E21" s="7">
         <v>42556</v>
       </c>
-      <c r="F21" s="7">
-        <v>42555.612500000003</v>
+      <c r="F21" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="G21">
-        <v>0.81630977294123108</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0.12244646594118466</v>
+        <v>0.811785638912222</v>
+      </c>
+      <c r="H21">
+        <v>0.10176181761407965</v>
       </c>
       <c r="K21" s="11"/>
       <c r="M21" t="str">
@@ -1848,13 +1910,13 @@
       <c r="E22" s="3">
         <v>42563</v>
       </c>
-      <c r="F22" s="3">
-        <v>42563.041666666664</v>
+      <c r="F22" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="G22">
         <v>1.1158234020305029</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22">
         <v>0.16737351030457542</v>
       </c>
       <c r="K22" s="11"/>
@@ -1879,13 +1941,13 @@
       <c r="E23" s="3">
         <v>42465</v>
       </c>
-      <c r="F23" s="3">
-        <v>42465.630555555559</v>
+      <c r="F23" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="G23">
         <v>7.6236021127896771</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23">
         <v>0.11071770996644863</v>
       </c>
       <c r="K23" s="8"/>
@@ -1910,14 +1972,14 @@
       <c r="E24" s="3">
         <v>42474</v>
       </c>
-      <c r="F24" s="3">
-        <v>42474.577777777777</v>
+      <c r="F24" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="G24">
-        <v>4.6755389963515768</v>
-      </c>
-      <c r="H24" s="11">
-        <v>2.2692186609994556</v>
+        <v>3.6866277973878576</v>
+      </c>
+      <c r="H24">
+        <v>0.31080622828471594</v>
       </c>
       <c r="K24" s="9"/>
       <c r="M24" t="str">
@@ -1941,13 +2003,13 @@
       <c r="E25" s="3">
         <v>42478</v>
       </c>
-      <c r="F25" s="3">
-        <v>42478.854166666664</v>
+      <c r="F25" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="G25">
         <v>4.9182315046360365</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25">
         <v>0.18685715303388098</v>
       </c>
       <c r="K25" s="9"/>
@@ -1972,13 +2034,13 @@
       <c r="E26" s="3">
         <v>42486</v>
       </c>
-      <c r="F26" s="3">
-        <v>42486.493055555555</v>
+      <c r="F26" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="G26">
-        <v>4.5991750142800543</v>
-      </c>
-      <c r="H26" s="8">
+        <v>2.5961767042784771</v>
+      </c>
+      <c r="H26">
         <v>2.9371372624467419E-2</v>
       </c>
       <c r="K26" s="10"/>
@@ -2003,13 +2065,13 @@
       <c r="E27" s="3">
         <v>42493</v>
       </c>
-      <c r="F27" s="3">
-        <v>42493.548611111109</v>
+      <c r="F27" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="G27">
         <v>3.2247645620842404</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27">
         <v>2.7161247019927046E-2</v>
       </c>
       <c r="K27" s="8"/>
@@ -2034,13 +2096,13 @@
       <c r="E28" s="3">
         <v>42500</v>
       </c>
-      <c r="F28" s="3">
-        <v>42500.004166666666</v>
+      <c r="F28" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="G28">
         <v>2.4544476946800047</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28">
         <v>5.9438058068748578E-2</v>
       </c>
       <c r="K28" s="8"/>
@@ -2065,13 +2127,13 @@
       <c r="E29" s="3">
         <v>42507</v>
       </c>
-      <c r="F29" s="3">
-        <v>42507.386111111111</v>
+      <c r="F29" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="G29">
         <v>1.7796972726361173</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29">
         <v>4.0502218455045591E-2</v>
       </c>
       <c r="K29" s="8"/>
@@ -2096,13 +2158,13 @@
       <c r="E30" s="3">
         <v>42514</v>
       </c>
-      <c r="F30" s="3">
-        <v>42514.5</v>
+      <c r="F30" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="G30">
         <v>1.2455620315830087</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30">
         <v>4.3844607392821006E-2</v>
       </c>
       <c r="K30" s="8"/>
@@ -2127,13 +2189,13 @@
       <c r="E31" s="3">
         <v>42521</v>
       </c>
-      <c r="F31" s="3">
-        <v>42521.5</v>
+      <c r="F31" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="G31">
         <v>1.2103604539896395</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31">
         <v>1.8424565223449037E-2</v>
       </c>
       <c r="K31" s="10"/>
@@ -2158,14 +2220,14 @@
       <c r="E32" s="3">
         <v>42528</v>
       </c>
-      <c r="F32" s="3">
-        <v>42528.5</v>
+      <c r="F32" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="G32">
         <v>2.3638939805320018</v>
       </c>
-      <c r="H32" s="8">
-        <v>0.92709443525055746</v>
+      <c r="H32">
+        <v>0.80004160674519142</v>
       </c>
       <c r="K32" s="10"/>
       <c r="M32" t="str">
@@ -2189,14 +2251,14 @@
       <c r="E33" s="3">
         <v>42535</v>
       </c>
-      <c r="F33" s="3">
-        <v>42535.54583333333</v>
+      <c r="F33" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="G33">
         <v>0.86456263656560928</v>
       </c>
-      <c r="H33" s="8">
-        <v>0.77852410425825957</v>
+      <c r="H33">
+        <v>0.66899912776601023</v>
       </c>
       <c r="K33" s="10"/>
       <c r="M33" t="str">
@@ -2220,14 +2282,14 @@
       <c r="E34" s="3">
         <v>42542</v>
       </c>
-      <c r="F34" s="3">
-        <v>42542.5</v>
+      <c r="F34" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="G34">
-        <v>1.4929139685146851</v>
-      </c>
-      <c r="H34" s="10">
-        <v>1.3625229399110386</v>
+        <v>0.90291020097157626</v>
+      </c>
+      <c r="H34">
+        <v>2.1019823291573494E-2</v>
       </c>
       <c r="K34" s="10"/>
       <c r="M34" t="str">
@@ -2251,13 +2313,13 @@
       <c r="E35" s="3">
         <v>42549</v>
       </c>
-      <c r="F35" s="3">
-        <v>42549.37222222222</v>
+      <c r="F35" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="G35">
         <v>1.3926564653347471</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35">
         <v>0.20889846980021207</v>
       </c>
       <c r="K35" s="11"/>
@@ -2282,13 +2344,13 @@
       <c r="E36" s="7">
         <v>42556</v>
       </c>
-      <c r="F36" s="7">
-        <v>42555.612500000003</v>
+      <c r="F36" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="G36">
         <v>1.1923653632280271</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36">
         <v>0.17885480448420407</v>
       </c>
       <c r="K36" s="11"/>
@@ -2313,13 +2375,13 @@
       <c r="E37" s="3">
         <v>42563</v>
       </c>
-      <c r="F37" s="3">
-        <v>42563.041666666664</v>
+      <c r="F37" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="G37">
         <v>1.3545025099580608</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37">
         <v>0.20317537649370912</v>
       </c>
       <c r="K37" s="11"/>
@@ -2344,13 +2406,13 @@
       <c r="E38" s="3">
         <v>42465</v>
       </c>
-      <c r="F38" s="3">
-        <v>42465.630555555559</v>
+      <c r="F38" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="G38">
         <v>1.7071507771501291</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38">
         <v>3.8672698381608001E-2</v>
       </c>
       <c r="K38" s="8"/>
@@ -2375,13 +2437,13 @@
       <c r="E39" s="3">
         <v>42474</v>
       </c>
-      <c r="F39" s="3">
-        <v>42474.577777777777</v>
+      <c r="F39" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="G39">
         <v>3.5180309540206767</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39">
         <v>6.6458216262998693E-2</v>
       </c>
       <c r="K39" s="9"/>
@@ -2406,14 +2468,14 @@
       <c r="E40" s="3">
         <v>42478</v>
       </c>
-      <c r="F40" s="3">
-        <v>42478.854166666664</v>
+      <c r="F40" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="G40">
         <v>5.0938948913837718</v>
       </c>
-      <c r="H40" s="11">
-        <v>1.9462439444433886</v>
+      <c r="H40">
+        <v>0.3294780543712526</v>
       </c>
       <c r="K40" s="9"/>
       <c r="M40" t="str">
@@ -2437,13 +2499,13 @@
       <c r="E41" s="3">
         <v>42486</v>
       </c>
-      <c r="F41" s="3">
-        <v>42486.493055555555</v>
+      <c r="F41" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="G41">
         <v>4.6974196794163579</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41">
         <v>0.21446571811017029</v>
       </c>
       <c r="K41" s="8"/>
@@ -2468,13 +2530,13 @@
       <c r="E42" s="3">
         <v>42493</v>
       </c>
-      <c r="F42" s="3">
-        <v>42493.548611111109</v>
+      <c r="F42" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="G42">
         <v>1.9426452073909919</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42">
         <v>0.36775096900862275</v>
       </c>
       <c r="K42" s="8"/>
@@ -2499,13 +2561,13 @@
       <c r="E43" s="3">
         <v>42500</v>
       </c>
-      <c r="F43" s="3">
-        <v>42500.004166666666</v>
+      <c r="F43" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="G43">
         <v>2.1284572310787686</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43">
         <v>9.2805925261710692E-2</v>
       </c>
       <c r="K43" s="8"/>
@@ -2530,13 +2592,13 @@
       <c r="E44" s="3">
         <v>42507</v>
       </c>
-      <c r="F44" s="3">
-        <v>42507.386111111111</v>
+      <c r="F44" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="G44">
         <v>0.79491525827572795</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44">
         <v>0.15947027094024119</v>
       </c>
       <c r="K44" s="10"/>
@@ -2561,13 +2623,13 @@
       <c r="E45" s="3">
         <v>42514</v>
       </c>
-      <c r="F45" s="3">
-        <v>42514.5</v>
+      <c r="F45" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="G45">
         <v>0.7261801707049963</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45">
         <v>4.886719888861786E-2</v>
       </c>
       <c r="K45" s="10"/>
@@ -2592,13 +2654,13 @@
       <c r="E46" s="3">
         <v>42521</v>
       </c>
-      <c r="F46" s="3">
-        <v>42521.5</v>
+      <c r="F46" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="G46">
         <v>2.2314962964842344</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46">
         <v>6.7245650604000923E-2</v>
       </c>
       <c r="K46" s="10"/>
@@ -2623,14 +2685,14 @@
       <c r="E47" s="3">
         <v>42528</v>
       </c>
-      <c r="F47" s="3">
-        <v>42528.5</v>
+      <c r="F47" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="G47">
         <v>2.5894129530466214</v>
       </c>
-      <c r="H47" s="10">
-        <v>1.4464800961477888</v>
+      <c r="H47">
+        <v>0.20554771761841062</v>
       </c>
       <c r="K47" s="8"/>
       <c r="M47" t="str">
@@ -2654,13 +2716,13 @@
       <c r="E48" s="3">
         <v>42535</v>
       </c>
-      <c r="F48" s="3">
-        <v>42535.54583333333</v>
+      <c r="F48" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="G48">
         <v>2.9121501222881117</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48">
         <v>1.731260914642303E-2</v>
       </c>
       <c r="K48" s="10"/>
@@ -2685,13 +2747,13 @@
       <c r="E49" s="3">
         <v>42542</v>
       </c>
-      <c r="F49" s="3">
-        <v>42542.5</v>
+      <c r="F49" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="G49">
         <v>3.1934554277577418</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49">
         <v>0.47901831416366125</v>
       </c>
       <c r="K49" s="11"/>
@@ -2716,14 +2778,14 @@
       <c r="E50" s="3">
         <v>42549</v>
       </c>
-      <c r="F50" s="3">
-        <v>42549.37222222222</v>
+      <c r="F50" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="G50">
-        <v>2.5605934588249193</v>
-      </c>
-      <c r="H50" s="8">
-        <v>0.38408901882373786</v>
+        <v>2.5561436925926926</v>
+      </c>
+      <c r="H50">
+        <v>0.38342155388890387</v>
       </c>
       <c r="K50" s="10"/>
       <c r="M50" t="str">
@@ -2747,13 +2809,13 @@
       <c r="E51" s="7">
         <v>42556</v>
       </c>
-      <c r="F51" s="7">
-        <v>42555.612500000003</v>
+      <c r="F51" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="G51">
         <v>1.8513244509122779</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H51">
         <v>0.2776986676368417</v>
       </c>
       <c r="K51" s="11"/>
@@ -2778,13 +2840,13 @@
       <c r="E52" s="3">
         <v>42563</v>
       </c>
-      <c r="F52" s="3">
-        <v>42563.041666666664</v>
+      <c r="F52" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="G52">
         <v>1.5305562521836207</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H52">
         <v>0.22958343782754309</v>
       </c>
       <c r="K52" s="11"/>
@@ -2795,6 +2857,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Data/Lab-linked/SoilCompConc_W1toW15_Smet.xlsx
+++ b/Data/Lab-linked/SoilCompConc_W1toW15_Smet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="131">
   <si>
     <t>Filename</t>
   </si>
@@ -413,6 +413,12 @@
   </si>
   <si>
     <t>12/07/2016 01:00</t>
+  </si>
+  <si>
+    <t>Mass.Soil.g</t>
+  </si>
+  <si>
+    <t>theta.prct</t>
   </si>
 </sst>
 </file>
@@ -530,18 +536,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1213,7 +1208,7 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I1" sqref="I1:J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,6 +1246,12 @@
       <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="K1" s="2" t="s">
         <v>109</v>
       </c>
@@ -1485,6 +1486,12 @@
       <c r="H8">
         <v>0.17648320429276748</v>
       </c>
+      <c r="I8">
+        <v>5.05</v>
+      </c>
+      <c r="J8">
+        <v>27.402154495750565</v>
+      </c>
       <c r="K8" s="8"/>
       <c r="M8" t="str">
         <f t="shared" si="0"/>
@@ -1516,6 +1523,12 @@
       <c r="H9">
         <v>5.8313366457463101E-2</v>
       </c>
+      <c r="I9">
+        <v>5.0598999999999998</v>
+      </c>
+      <c r="J9">
+        <v>22.429681382882634</v>
+      </c>
       <c r="K9" s="9"/>
       <c r="M9" t="str">
         <f t="shared" si="0"/>
@@ -1547,6 +1560,12 @@
       <c r="H10">
         <v>0.15279601696106929</v>
       </c>
+      <c r="I10">
+        <v>5.1233000000000004</v>
+      </c>
+      <c r="J10">
+        <v>25.903268788846027</v>
+      </c>
       <c r="K10" s="9"/>
       <c r="M10" t="str">
         <f t="shared" si="0"/>
@@ -1578,6 +1597,12 @@
       <c r="H11">
         <v>0.60084078555202636</v>
       </c>
+      <c r="I11">
+        <v>5.0347999999999997</v>
+      </c>
+      <c r="J11">
+        <v>22.689649058236018</v>
+      </c>
       <c r="K11" s="8"/>
       <c r="M11" t="str">
         <f t="shared" si="0"/>
@@ -1609,6 +1634,12 @@
       <c r="H12">
         <v>0.27803727373287529</v>
       </c>
+      <c r="I12">
+        <v>4.9980000000000002</v>
+      </c>
+      <c r="J12">
+        <v>20.246271719797495</v>
+      </c>
       <c r="K12" s="8"/>
       <c r="M12" t="str">
         <f t="shared" si="0"/>
@@ -1640,6 +1671,12 @@
       <c r="H13">
         <v>1.9135924633912567E-2</v>
       </c>
+      <c r="I13">
+        <v>5.0118999999999998</v>
+      </c>
+      <c r="J13">
+        <v>16.303301015995086</v>
+      </c>
       <c r="K13" s="8"/>
       <c r="M13" t="str">
         <f t="shared" si="0"/>
@@ -1671,6 +1708,12 @@
       <c r="H14">
         <v>0.31360471858080424</v>
       </c>
+      <c r="I14">
+        <v>5.0103999999999997</v>
+      </c>
+      <c r="J14">
+        <v>20.193580246913577</v>
+      </c>
       <c r="K14" s="10"/>
       <c r="M14" t="str">
         <f t="shared" si="0"/>
@@ -1702,6 +1745,12 @@
       <c r="H15">
         <v>2.8442108124751592E-2</v>
       </c>
+      <c r="I15">
+        <v>4.9984000000000002</v>
+      </c>
+      <c r="J15">
+        <v>24.986780752775996</v>
+      </c>
       <c r="K15" s="10"/>
       <c r="M15" t="str">
         <f t="shared" si="0"/>
@@ -1733,6 +1782,12 @@
       <c r="H16">
         <v>3.549509189515012E-2</v>
       </c>
+      <c r="I16">
+        <v>4.9981</v>
+      </c>
+      <c r="J16">
+        <v>25.298983732049262</v>
+      </c>
       <c r="K16" s="10"/>
       <c r="M16" t="str">
         <f t="shared" si="0"/>
@@ -1764,6 +1819,12 @@
       <c r="H17">
         <v>7.7662959146446886E-2</v>
       </c>
+      <c r="I17">
+        <v>5.0129000000000001</v>
+      </c>
+      <c r="J17">
+        <v>14.368422708709494</v>
+      </c>
       <c r="K17" s="8"/>
       <c r="M17" t="str">
         <f t="shared" si="0"/>
@@ -1795,6 +1856,12 @@
       <c r="H18">
         <v>0.10176181761407965</v>
       </c>
+      <c r="I18">
+        <v>5.0502000000000002</v>
+      </c>
+      <c r="J18">
+        <v>27.941637719342122</v>
+      </c>
       <c r="K18" s="11"/>
       <c r="M18" t="str">
         <f t="shared" si="0"/>
@@ -1826,6 +1893,12 @@
       <c r="H19">
         <v>0.62629297789808969</v>
       </c>
+      <c r="I19">
+        <v>5.0137</v>
+      </c>
+      <c r="J19">
+        <v>34.334950650734086</v>
+      </c>
       <c r="K19" s="10"/>
       <c r="M19" t="str">
         <f t="shared" si="0"/>
@@ -1857,6 +1930,12 @@
       <c r="H20">
         <v>0.1118610485983738</v>
       </c>
+      <c r="I20">
+        <v>4.9946999999999999</v>
+      </c>
+      <c r="J20">
+        <v>18.211212627957654</v>
+      </c>
       <c r="K20" s="10"/>
       <c r="M20" t="str">
         <f t="shared" si="0"/>
@@ -1888,6 +1967,12 @@
       <c r="H21">
         <v>0.10176181761407965</v>
       </c>
+      <c r="I21">
+        <v>5.1658999999999997</v>
+      </c>
+      <c r="J21">
+        <v>7.8373710767148212</v>
+      </c>
       <c r="K21" s="11"/>
       <c r="M21" t="str">
         <f t="shared" si="0"/>
@@ -1919,6 +2004,12 @@
       <c r="H22">
         <v>0.16737351030457542</v>
       </c>
+      <c r="I22">
+        <v>5.0317999999999996</v>
+      </c>
+      <c r="J22">
+        <v>13.933538829501222</v>
+      </c>
       <c r="K22" s="11"/>
       <c r="M22" t="str">
         <f t="shared" si="0"/>
@@ -1950,6 +2041,12 @@
       <c r="H23">
         <v>0.11071770996644863</v>
       </c>
+      <c r="I23">
+        <v>5.0679999999999996</v>
+      </c>
+      <c r="J23">
+        <v>29.655569339176907</v>
+      </c>
       <c r="K23" s="8"/>
       <c r="M23" t="str">
         <f t="shared" si="0"/>
@@ -1981,6 +2078,12 @@
       <c r="H24">
         <v>0.31080622828471594</v>
       </c>
+      <c r="I24">
+        <v>5.0461</v>
+      </c>
+      <c r="J24">
+        <v>22.326699724458372</v>
+      </c>
       <c r="K24" s="9"/>
       <c r="M24" t="str">
         <f t="shared" si="0"/>
@@ -2012,6 +2115,12 @@
       <c r="H25">
         <v>0.18685715303388098</v>
       </c>
+      <c r="I25">
+        <v>5.0345000000000004</v>
+      </c>
+      <c r="J25">
+        <v>25.46060036077148</v>
+      </c>
       <c r="K25" s="9"/>
       <c r="M25" t="str">
         <f t="shared" si="0"/>
@@ -2043,6 +2152,12 @@
       <c r="H26">
         <v>2.9371372624467419E-2</v>
       </c>
+      <c r="I26">
+        <v>5.0335000000000001</v>
+      </c>
+      <c r="J26">
+        <v>22.519863428954316</v>
+      </c>
       <c r="K26" s="10"/>
       <c r="M26" t="str">
         <f t="shared" si="0"/>
@@ -2074,6 +2189,12 @@
       <c r="H27">
         <v>2.7161247019927046E-2</v>
       </c>
+      <c r="I27">
+        <v>5.0500999999999996</v>
+      </c>
+      <c r="J27">
+        <v>26.487603478639215</v>
+      </c>
       <c r="K27" s="8"/>
       <c r="M27" t="str">
         <f t="shared" si="0"/>
@@ -2105,6 +2226,12 @@
       <c r="H28">
         <v>5.9438058068748578E-2</v>
       </c>
+      <c r="I28">
+        <v>5.0580999999999996</v>
+      </c>
+      <c r="J28">
+        <v>16.641555329654331</v>
+      </c>
       <c r="K28" s="8"/>
       <c r="M28" t="str">
         <f t="shared" si="0"/>
@@ -2136,6 +2263,12 @@
       <c r="H29">
         <v>4.0502218455045591E-2</v>
       </c>
+      <c r="I29">
+        <v>5.0145</v>
+      </c>
+      <c r="J29">
+        <v>34.81724024883335</v>
+      </c>
       <c r="K29" s="8"/>
       <c r="M29" t="str">
         <f t="shared" si="0"/>
@@ -2167,6 +2300,12 @@
       <c r="H30">
         <v>4.3844607392821006E-2</v>
       </c>
+      <c r="I30">
+        <v>5.0022000000000002</v>
+      </c>
+      <c r="J30">
+        <v>26.307785589958112</v>
+      </c>
       <c r="K30" s="8"/>
       <c r="M30" t="str">
         <f t="shared" si="0"/>
@@ -2198,6 +2337,12 @@
       <c r="H31">
         <v>1.8424565223449037E-2</v>
       </c>
+      <c r="I31">
+        <v>5.0101000000000004</v>
+      </c>
+      <c r="J31">
+        <v>26.795560043812756</v>
+      </c>
       <c r="K31" s="10"/>
       <c r="M31" t="str">
         <f t="shared" si="0"/>
@@ -2229,6 +2374,12 @@
       <c r="H32">
         <v>0.80004160674519142</v>
       </c>
+      <c r="I32">
+        <v>5.0075000000000003</v>
+      </c>
+      <c r="J32">
+        <v>21.363717474139616</v>
+      </c>
       <c r="K32" s="10"/>
       <c r="M32" t="str">
         <f t="shared" si="0"/>
@@ -2260,6 +2411,12 @@
       <c r="H33">
         <v>0.66899912776601023</v>
       </c>
+      <c r="I33">
+        <v>5.0083000000000002</v>
+      </c>
+      <c r="J33">
+        <v>26.874851050549779</v>
+      </c>
       <c r="K33" s="10"/>
       <c r="M33" t="str">
         <f t="shared" si="0"/>
@@ -2291,6 +2448,12 @@
       <c r="H34">
         <v>2.1019823291573494E-2</v>
       </c>
+      <c r="I34">
+        <v>4.9981</v>
+      </c>
+      <c r="J34">
+        <v>28.728510258886171</v>
+      </c>
       <c r="K34" s="10"/>
       <c r="M34" t="str">
         <f t="shared" si="0"/>
@@ -2322,6 +2485,12 @@
       <c r="H35">
         <v>0.20889846980021207</v>
       </c>
+      <c r="I35">
+        <v>5.0437000000000003</v>
+      </c>
+      <c r="J35">
+        <v>17.720031814436513</v>
+      </c>
       <c r="K35" s="11"/>
       <c r="M35" t="str">
         <f t="shared" si="0"/>
@@ -2353,6 +2522,12 @@
       <c r="H36">
         <v>0.17885480448420407</v>
       </c>
+      <c r="I36">
+        <v>5.0243000000000002</v>
+      </c>
+      <c r="J36">
+        <v>8.0317718696462119</v>
+      </c>
       <c r="K36" s="11"/>
       <c r="M36" t="str">
         <f t="shared" si="0"/>
@@ -2384,6 +2559,12 @@
       <c r="H37">
         <v>0.20317537649370912</v>
       </c>
+      <c r="I37">
+        <v>5.0092999999999996</v>
+      </c>
+      <c r="J37">
+        <v>13.933538829501222</v>
+      </c>
       <c r="K37" s="11"/>
       <c r="M37" t="str">
         <f t="shared" si="0"/>
@@ -2415,6 +2596,12 @@
       <c r="H38">
         <v>3.8672698381608001E-2</v>
       </c>
+      <c r="I38">
+        <v>5.0641999999999996</v>
+      </c>
+      <c r="J38">
+        <v>30.16702400407819</v>
+      </c>
       <c r="K38" s="8"/>
       <c r="M38" t="str">
         <f t="shared" si="0"/>
@@ -2446,6 +2633,12 @@
       <c r="H39">
         <v>6.6458216262998693E-2</v>
       </c>
+      <c r="I39">
+        <v>5.0102000000000002</v>
+      </c>
+      <c r="J39">
+        <v>23.902708314451207</v>
+      </c>
       <c r="K39" s="9"/>
       <c r="M39" t="str">
         <f t="shared" si="0"/>
@@ -2477,6 +2670,12 @@
       <c r="H40">
         <v>0.3294780543712526</v>
       </c>
+      <c r="I40">
+        <v>5.0374999999999996</v>
+      </c>
+      <c r="J40">
+        <v>30.04397011145587</v>
+      </c>
       <c r="K40" s="9"/>
       <c r="M40" t="str">
         <f t="shared" si="0"/>
@@ -2508,6 +2707,12 @@
       <c r="H41">
         <v>0.21446571811017029</v>
       </c>
+      <c r="I41">
+        <v>5.0557999999999996</v>
+      </c>
+      <c r="J41">
+        <v>23.375464684014847</v>
+      </c>
       <c r="K41" s="8"/>
       <c r="M41" t="str">
         <f t="shared" si="0"/>
@@ -2539,6 +2744,12 @@
       <c r="H42">
         <v>0.36775096900862275</v>
       </c>
+      <c r="I42">
+        <v>5.0183999999999997</v>
+      </c>
+      <c r="J42">
+        <v>24.873961979555215</v>
+      </c>
       <c r="K42" s="8"/>
       <c r="M42" t="str">
         <f t="shared" si="0"/>
@@ -2570,6 +2781,12 @@
       <c r="H43">
         <v>9.2805925261710692E-2</v>
       </c>
+      <c r="I43">
+        <v>5.0049000000000001</v>
+      </c>
+      <c r="J43">
+        <v>17.842998290740834</v>
+      </c>
       <c r="K43" s="8"/>
       <c r="M43" t="str">
         <f t="shared" si="0"/>
@@ -2601,6 +2818,12 @@
       <c r="H44">
         <v>0.15947027094024119</v>
       </c>
+      <c r="I44">
+        <v>5.0148999999999999</v>
+      </c>
+      <c r="J44">
+        <v>25.688794685296113</v>
+      </c>
       <c r="K44" s="10"/>
       <c r="M44" t="str">
         <f t="shared" si="0"/>
@@ -2632,6 +2855,12 @@
       <c r="H45">
         <v>4.886719888861786E-2</v>
       </c>
+      <c r="I45">
+        <v>4.9980000000000002</v>
+      </c>
+      <c r="J45">
+        <v>27.01578901043991</v>
+      </c>
       <c r="K45" s="10"/>
       <c r="M45" t="str">
         <f t="shared" si="0"/>
@@ -2663,6 +2892,12 @@
       <c r="H46">
         <v>6.7245650604000923E-2</v>
       </c>
+      <c r="I46">
+        <v>5.0132000000000003</v>
+      </c>
+      <c r="J46">
+        <v>29.328651699818732</v>
+      </c>
       <c r="K46" s="10"/>
       <c r="M46" t="str">
         <f t="shared" si="0"/>
@@ -2694,6 +2929,12 @@
       <c r="H47">
         <v>0.20554771761841062</v>
       </c>
+      <c r="I47">
+        <v>4.9997999999999996</v>
+      </c>
+      <c r="J47">
+        <v>17.822154256860923</v>
+      </c>
       <c r="K47" s="8"/>
       <c r="M47" t="str">
         <f t="shared" si="0"/>
@@ -2725,6 +2966,12 @@
       <c r="H48">
         <v>1.731260914642303E-2</v>
       </c>
+      <c r="I48">
+        <v>5.0027999999999997</v>
+      </c>
+      <c r="J48">
+        <v>30.382050070659812</v>
+      </c>
       <c r="K48" s="10"/>
       <c r="M48" t="str">
         <f t="shared" si="0"/>
@@ -2756,6 +3003,12 @@
       <c r="H49">
         <v>0.47901831416366125</v>
       </c>
+      <c r="I49">
+        <v>5.0228000000000002</v>
+      </c>
+      <c r="J49">
+        <v>32.785200433011063</v>
+      </c>
       <c r="K49" s="11"/>
       <c r="M49" t="str">
         <f t="shared" si="0"/>
@@ -2787,6 +3040,12 @@
       <c r="H50">
         <v>0.38342155388890387</v>
       </c>
+      <c r="I50">
+        <v>5.0401999999999996</v>
+      </c>
+      <c r="J50">
+        <v>20.190814038707078</v>
+      </c>
       <c r="K50" s="10"/>
       <c r="M50" t="str">
         <f t="shared" si="0"/>
@@ -2818,6 +3077,12 @@
       <c r="H51">
         <v>0.2776986676368417</v>
       </c>
+      <c r="I51">
+        <v>5.165</v>
+      </c>
+      <c r="J51">
+        <v>10.13187782503014</v>
+      </c>
       <c r="K51" s="11"/>
       <c r="M51" t="str">
         <f t="shared" si="0"/>
@@ -2848,6 +3113,12 @@
       </c>
       <c r="H52">
         <v>0.22958343782754309</v>
+      </c>
+      <c r="I52">
+        <v>5.0412999999999997</v>
+      </c>
+      <c r="J52">
+        <v>13.062549419443494</v>
       </c>
       <c r="K52" s="11"/>
       <c r="M52" t="str">

--- a/Data/Lab-linked/SoilCompConc_W1toW15_Smet.xlsx
+++ b/Data/Lab-linked/SoilCompConc_W1toW15_Smet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="14745" yWindow="465" windowWidth="14055" windowHeight="12465"/>
+    <workbookView xWindow="14745" yWindow="465" windowWidth="14055" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1207,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J52"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3136,8 +3136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3628,7 +3628,7 @@
         <v>42542</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>42542</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>42549</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -3809,6 +3809,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="C71A" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
